--- a/public/DataUser/data-siswa.xlsx
+++ b/public/DataUser/data-siswa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROYEK PENELITIAN SPP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4607D054-3254-4221-93AC-06C16E2E61F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE81666A-E212-4E4D-BA47-A8DF29EB0047}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{97B941E0-8019-407F-85C6-2C3F1673E065}"/>
   </bookViews>
@@ -1792,13 +1792,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF8B39"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1826,7 +1832,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10164,7 +10172,7 @@
   <dimension ref="A1:H285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10181,7 +10189,7 @@
       <c r="A1" t="s">
         <v>571</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>572</v>
       </c>
       <c r="C1" t="s">
@@ -10204,22 +10212,22 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2">
         <v>30491221589</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>565</v>
       </c>
       <c r="D2">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="E2" t="s">
+        <v>567</v>
+      </c>
+      <c r="F2" t="s">
         <v>569</v>
       </c>
       <c r="G2">
@@ -10230,22 +10238,22 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3">
         <v>30491220436</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>566</v>
       </c>
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" t="s">
+        <v>567</v>
+      </c>
+      <c r="F3" t="s">
         <v>569</v>
       </c>
       <c r="G3">
@@ -10256,22 +10264,22 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
         <v>30491321481</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>566</v>
       </c>
       <c r="D4">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" t="s">
+        <v>567</v>
+      </c>
+      <c r="F4" t="s">
         <v>569</v>
       </c>
       <c r="G4">
@@ -10282,22 +10290,22 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <v>3034520069</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>566</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" t="s">
+        <v>567</v>
+      </c>
+      <c r="F5" t="s">
         <v>568</v>
       </c>
       <c r="G5">
@@ -10308,22 +10316,22 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
       <c r="B6">
         <v>30491221553</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>566</v>
       </c>
       <c r="D6">
         <v>6</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" t="s">
+        <v>567</v>
+      </c>
+      <c r="F6" t="s">
         <v>569</v>
       </c>
       <c r="G6">
@@ -10334,22 +10342,22 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
       <c r="B7">
         <v>30491321486</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>566</v>
       </c>
       <c r="D7">
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" t="s">
+        <v>567</v>
+      </c>
+      <c r="F7" t="s">
         <v>569</v>
       </c>
       <c r="G7">
@@ -10360,22 +10368,22 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8">
         <v>30491221590</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>566</v>
       </c>
       <c r="D8">
         <v>8</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" t="s">
+        <v>567</v>
+      </c>
+      <c r="F8" t="s">
         <v>569</v>
       </c>
       <c r="G8">
@@ -10386,22 +10394,22 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
       <c r="B9">
         <v>30141020333</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" t="s">
         <v>566</v>
       </c>
       <c r="D9">
         <v>9</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F9" s="2" t="s">
+      <c r="E9" t="s">
+        <v>567</v>
+      </c>
+      <c r="F9" t="s">
         <v>570</v>
       </c>
       <c r="G9">
@@ -10412,22 +10420,22 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10">
         <v>30141021384</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" t="s">
         <v>565</v>
       </c>
       <c r="D10">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" t="s">
+        <v>567</v>
+      </c>
+      <c r="F10" t="s">
         <v>570</v>
       </c>
       <c r="G10">
@@ -10438,22 +10446,22 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11">
         <v>30141021404</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" t="s">
         <v>566</v>
       </c>
       <c r="D11">
         <v>11</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" t="s">
+        <v>567</v>
+      </c>
+      <c r="F11" t="s">
         <v>570</v>
       </c>
       <c r="G11">
@@ -10464,22 +10472,22 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="B12">
         <v>3034521103</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" t="s">
         <v>565</v>
       </c>
       <c r="D12">
         <v>12</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" t="s">
+        <v>567</v>
+      </c>
+      <c r="F12" t="s">
         <v>568</v>
       </c>
       <c r="G12">
@@ -10490,22 +10498,22 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>11</v>
       </c>
       <c r="B13">
         <v>3034621078</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" t="s">
         <v>566</v>
       </c>
       <c r="D13">
         <v>13</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="E13" t="s">
+        <v>567</v>
+      </c>
+      <c r="F13" t="s">
         <v>568</v>
       </c>
       <c r="G13">
@@ -10516,22 +10524,22 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>12</v>
       </c>
       <c r="B14">
         <v>30491321482</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>566</v>
       </c>
       <c r="D14">
         <v>14</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="E14" t="s">
+        <v>567</v>
+      </c>
+      <c r="F14" t="s">
         <v>569</v>
       </c>
       <c r="G14">
@@ -10542,22 +10550,22 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>30491220459</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" t="s">
         <v>566</v>
       </c>
       <c r="D15">
         <v>15</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" t="s">
+        <v>567</v>
+      </c>
+      <c r="F15" t="s">
         <v>569</v>
       </c>
       <c r="G15">
@@ -10568,22 +10576,22 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>14</v>
       </c>
       <c r="B16">
         <v>30491220460</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" t="s">
         <v>566</v>
       </c>
       <c r="D16">
         <v>16</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F16" s="2" t="s">
+      <c r="E16" t="s">
+        <v>567</v>
+      </c>
+      <c r="F16" t="s">
         <v>569</v>
       </c>
       <c r="G16">
@@ -10594,22 +10602,22 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17">
         <v>30491321483</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" t="s">
         <v>566</v>
       </c>
       <c r="D17">
         <v>17</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="E17" t="s">
+        <v>567</v>
+      </c>
+      <c r="F17" t="s">
         <v>569</v>
       </c>
       <c r="G17">
@@ -10620,22 +10628,22 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>30141021385</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" t="s">
         <v>566</v>
       </c>
       <c r="D18">
         <v>18</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="E18" t="s">
+        <v>567</v>
+      </c>
+      <c r="F18" t="s">
         <v>570</v>
       </c>
       <c r="G18">
@@ -10646,22 +10654,22 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>30491321484</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" t="s">
         <v>566</v>
       </c>
       <c r="D19">
         <v>19</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F19" s="2" t="s">
+      <c r="E19" t="s">
+        <v>567</v>
+      </c>
+      <c r="F19" t="s">
         <v>569</v>
       </c>
       <c r="G19">
@@ -10672,22 +10680,22 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
       <c r="B20">
         <v>30491221554</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" t="s">
         <v>566</v>
       </c>
       <c r="D20">
         <v>20</v>
       </c>
-      <c r="E20" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" t="s">
+        <v>567</v>
+      </c>
+      <c r="F20" t="s">
         <v>569</v>
       </c>
       <c r="G20">
@@ -10698,22 +10706,22 @@
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>19</v>
       </c>
       <c r="B21">
         <v>30491221591</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" t="s">
         <v>566</v>
       </c>
       <c r="D21">
         <v>21</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="E21" t="s">
+        <v>567</v>
+      </c>
+      <c r="F21" t="s">
         <v>569</v>
       </c>
       <c r="G21">
@@ -10724,22 +10732,22 @@
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
       <c r="B22">
         <v>3034621079</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" t="s">
         <v>565</v>
       </c>
       <c r="D22">
         <v>22</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F22" s="2" t="s">
+      <c r="E22" t="s">
+        <v>567</v>
+      </c>
+      <c r="F22" t="s">
         <v>568</v>
       </c>
       <c r="G22">
@@ -10750,22 +10758,22 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
       <c r="B23">
         <v>3034521104</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" t="s">
         <v>566</v>
       </c>
       <c r="D23">
         <v>23</v>
       </c>
-      <c r="E23" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="E23" t="s">
+        <v>567</v>
+      </c>
+      <c r="F23" t="s">
         <v>568</v>
       </c>
       <c r="G23">
@@ -10776,22 +10784,22 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>22</v>
       </c>
       <c r="B24">
         <v>3034621080</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" t="s">
         <v>566</v>
       </c>
       <c r="D24">
         <v>24</v>
       </c>
-      <c r="E24" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F24" s="2" t="s">
+      <c r="E24" t="s">
+        <v>567</v>
+      </c>
+      <c r="F24" t="s">
         <v>568</v>
       </c>
       <c r="G24">
@@ -10802,22 +10810,22 @@
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>23</v>
       </c>
       <c r="B25">
         <v>30141021405</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" t="s">
         <v>566</v>
       </c>
       <c r="D25">
         <v>25</v>
       </c>
-      <c r="E25" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F25" s="2" t="s">
+      <c r="E25" t="s">
+        <v>567</v>
+      </c>
+      <c r="F25" t="s">
         <v>570</v>
       </c>
       <c r="G25">
@@ -10828,22 +10836,22 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
       <c r="B26">
         <v>3034520070</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" t="s">
         <v>566</v>
       </c>
       <c r="D26">
         <v>26</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="E26" t="s">
+        <v>567</v>
+      </c>
+      <c r="F26" t="s">
         <v>568</v>
       </c>
       <c r="G26">
@@ -10854,22 +10862,22 @@
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>30141021386</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" t="s">
         <v>566</v>
       </c>
       <c r="D27">
         <v>27</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F27" s="2" t="s">
+      <c r="E27" t="s">
+        <v>567</v>
+      </c>
+      <c r="F27" t="s">
         <v>570</v>
       </c>
       <c r="G27">
@@ -10880,22 +10888,22 @@
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
       <c r="B28">
         <v>30141121364</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" t="s">
         <v>566</v>
       </c>
       <c r="D28">
         <v>28</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F28" s="2" t="s">
+      <c r="E28" t="s">
+        <v>567</v>
+      </c>
+      <c r="F28" t="s">
         <v>570</v>
       </c>
       <c r="G28">
@@ -10906,22 +10914,22 @@
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
       <c r="B29">
         <v>30491220437</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" t="s">
         <v>566</v>
       </c>
       <c r="D29">
         <v>29</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F29" s="2" t="s">
+      <c r="E29" t="s">
+        <v>567</v>
+      </c>
+      <c r="F29" t="s">
         <v>569</v>
       </c>
       <c r="G29">
@@ -10932,22 +10940,22 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
       <c r="B30">
         <v>30141121365</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C30" t="s">
         <v>566</v>
       </c>
       <c r="D30">
         <v>30</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="E30" t="s">
+        <v>567</v>
+      </c>
+      <c r="F30" t="s">
         <v>570</v>
       </c>
       <c r="G30">
@@ -10958,22 +10966,22 @@
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>29</v>
       </c>
       <c r="B31">
         <v>30491221555</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" t="s">
         <v>566</v>
       </c>
       <c r="D31">
         <v>31</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F31" s="2" t="s">
+      <c r="E31" t="s">
+        <v>567</v>
+      </c>
+      <c r="F31" t="s">
         <v>569</v>
       </c>
       <c r="G31">
@@ -10984,22 +10992,22 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>30</v>
       </c>
       <c r="B32">
         <v>30491221592</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" t="s">
         <v>566</v>
       </c>
       <c r="D32">
         <v>32</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F32" s="2" t="s">
+      <c r="E32" t="s">
+        <v>567</v>
+      </c>
+      <c r="F32" t="s">
         <v>569</v>
       </c>
       <c r="G32">
@@ -11010,22 +11018,22 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>31</v>
       </c>
       <c r="B33">
         <v>30491220461</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" t="s">
         <v>566</v>
       </c>
       <c r="D33">
         <v>33</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F33" s="2" t="s">
+      <c r="E33" t="s">
+        <v>567</v>
+      </c>
+      <c r="F33" t="s">
         <v>569</v>
       </c>
       <c r="G33">
@@ -11036,22 +11044,22 @@
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
       <c r="B34">
         <v>30141021406</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" t="s">
         <v>566</v>
       </c>
       <c r="D34">
         <v>34</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F34" s="2" t="s">
+      <c r="E34" t="s">
+        <v>567</v>
+      </c>
+      <c r="F34" t="s">
         <v>570</v>
       </c>
       <c r="G34">
@@ -11062,22 +11070,22 @@
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>33</v>
       </c>
       <c r="B35">
         <v>30491221556</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" t="s">
         <v>565</v>
       </c>
       <c r="D35">
         <v>35</v>
       </c>
-      <c r="E35" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E35" t="s">
+        <v>567</v>
+      </c>
+      <c r="F35" t="s">
         <v>569</v>
       </c>
       <c r="G35">
@@ -11088,22 +11096,22 @@
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>34</v>
       </c>
       <c r="B36">
         <v>3034621081</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" t="s">
         <v>565</v>
       </c>
       <c r="D36">
         <v>36</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F36" s="2" t="s">
+      <c r="E36" t="s">
+        <v>567</v>
+      </c>
+      <c r="F36" t="s">
         <v>568</v>
       </c>
       <c r="G36">
@@ -11114,22 +11122,22 @@
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>35</v>
       </c>
       <c r="B37">
         <v>30141021387</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" t="s">
         <v>566</v>
       </c>
       <c r="D37">
         <v>37</v>
       </c>
-      <c r="E37" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="E37" t="s">
+        <v>567</v>
+      </c>
+      <c r="F37" t="s">
         <v>570</v>
       </c>
       <c r="G37">
@@ -11140,22 +11148,22 @@
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>36</v>
       </c>
       <c r="B38">
         <v>30141020334</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" t="s">
         <v>565</v>
       </c>
       <c r="D38">
         <v>38</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F38" s="2" t="s">
+      <c r="E38" t="s">
+        <v>567</v>
+      </c>
+      <c r="F38" t="s">
         <v>570</v>
       </c>
       <c r="G38">
@@ -11166,22 +11174,22 @@
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>37</v>
       </c>
       <c r="B39">
         <v>3034520071</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" t="s">
         <v>566</v>
       </c>
       <c r="D39">
         <v>39</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="E39" t="s">
+        <v>567</v>
+      </c>
+      <c r="F39" t="s">
         <v>568</v>
       </c>
       <c r="G39">
@@ -11192,22 +11200,22 @@
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>38</v>
       </c>
       <c r="B40">
         <v>30491220438</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" t="s">
         <v>566</v>
       </c>
       <c r="D40">
         <v>40</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F40" s="2" t="s">
+      <c r="E40" t="s">
+        <v>567</v>
+      </c>
+      <c r="F40" t="s">
         <v>569</v>
       </c>
       <c r="G40">
@@ -11218,22 +11226,22 @@
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>39</v>
       </c>
       <c r="B41">
         <v>30491321487</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" t="s">
         <v>566</v>
       </c>
       <c r="D41">
         <v>41</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F41" s="2" t="s">
+      <c r="E41" t="s">
+        <v>567</v>
+      </c>
+      <c r="F41" t="s">
         <v>569</v>
       </c>
       <c r="G41">
@@ -11244,22 +11252,22 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="2" t="s">
+      <c r="A42" t="s">
         <v>40</v>
       </c>
       <c r="B42">
         <v>3034521105</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" t="s">
         <v>566</v>
       </c>
       <c r="D42">
         <v>42</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F42" s="2" t="s">
+      <c r="E42" t="s">
+        <v>567</v>
+      </c>
+      <c r="F42" t="s">
         <v>568</v>
       </c>
       <c r="G42">
@@ -11270,22 +11278,22 @@
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>41</v>
       </c>
       <c r="B43">
         <v>30491220462</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C43" t="s">
         <v>566</v>
       </c>
       <c r="D43">
         <v>43</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F43" s="2" t="s">
+      <c r="E43" t="s">
+        <v>567</v>
+      </c>
+      <c r="F43" t="s">
         <v>569</v>
       </c>
       <c r="G43">
@@ -11296,22 +11304,22 @@
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>42</v>
       </c>
       <c r="B44">
         <v>3034621082</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" t="s">
         <v>566</v>
       </c>
       <c r="D44">
         <v>44</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F44" s="2" t="s">
+      <c r="E44" t="s">
+        <v>567</v>
+      </c>
+      <c r="F44" t="s">
         <v>568</v>
       </c>
       <c r="G44">
@@ -11322,22 +11330,22 @@
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>43</v>
       </c>
       <c r="B45">
         <v>30141020335</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="C45" t="s">
         <v>566</v>
       </c>
       <c r="D45">
         <v>45</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F45" s="2" t="s">
+      <c r="E45" t="s">
+        <v>567</v>
+      </c>
+      <c r="F45" t="s">
         <v>570</v>
       </c>
       <c r="G45">
@@ -11348,22 +11356,22 @@
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="2" t="s">
+      <c r="A46" t="s">
         <v>44</v>
       </c>
       <c r="B46">
         <v>30491321488</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" t="s">
         <v>566</v>
       </c>
       <c r="D46">
         <v>46</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F46" s="2" t="s">
+      <c r="E46" t="s">
+        <v>567</v>
+      </c>
+      <c r="F46" t="s">
         <v>569</v>
       </c>
       <c r="G46">
@@ -11374,22 +11382,22 @@
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
         <v>45</v>
       </c>
       <c r="B47">
         <v>30141020363</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="C47" t="s">
         <v>566</v>
       </c>
       <c r="D47">
         <v>47</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F47" s="2" t="s">
+      <c r="E47" t="s">
+        <v>567</v>
+      </c>
+      <c r="F47" t="s">
         <v>570</v>
       </c>
       <c r="G47">
@@ -11400,22 +11408,22 @@
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="2" t="s">
+      <c r="A48" t="s">
         <v>46</v>
       </c>
       <c r="B48">
         <v>30491221593</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" t="s">
         <v>566</v>
       </c>
       <c r="D48">
         <v>48</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F48" s="2" t="s">
+      <c r="E48" t="s">
+        <v>567</v>
+      </c>
+      <c r="F48" t="s">
         <v>569</v>
       </c>
       <c r="G48">
@@ -11426,22 +11434,22 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>47</v>
       </c>
       <c r="B49">
         <v>30491221557</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" t="s">
         <v>566</v>
       </c>
       <c r="D49">
         <v>49</v>
       </c>
-      <c r="E49" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F49" s="2" t="s">
+      <c r="E49" t="s">
+        <v>567</v>
+      </c>
+      <c r="F49" t="s">
         <v>569</v>
       </c>
       <c r="G49">
@@ -11452,22 +11460,22 @@
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="2" t="s">
+      <c r="A50" t="s">
         <v>48</v>
       </c>
       <c r="B50">
         <v>30491221594</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" t="s">
         <v>566</v>
       </c>
       <c r="D50">
         <v>50</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="E50" t="s">
+        <v>567</v>
+      </c>
+      <c r="F50" t="s">
         <v>569</v>
       </c>
       <c r="G50">
@@ -11478,22 +11486,22 @@
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>49</v>
       </c>
       <c r="B51">
         <v>30491221558</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" t="s">
         <v>566</v>
       </c>
       <c r="D51">
         <v>51</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F51" s="2" t="s">
+      <c r="E51" t="s">
+        <v>567</v>
+      </c>
+      <c r="F51" t="s">
         <v>569</v>
       </c>
       <c r="G51">
@@ -11504,22 +11512,22 @@
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="2" t="s">
+      <c r="A52" t="s">
         <v>50</v>
       </c>
       <c r="B52">
         <v>30491321489</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" t="s">
         <v>566</v>
       </c>
       <c r="D52">
         <v>52</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F52" s="2" t="s">
+      <c r="E52" t="s">
+        <v>567</v>
+      </c>
+      <c r="F52" t="s">
         <v>569</v>
       </c>
       <c r="G52">
@@ -11530,22 +11538,22 @@
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="2" t="s">
+      <c r="A53" t="s">
         <v>51</v>
       </c>
       <c r="B53">
         <v>30491220439</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" t="s">
         <v>566</v>
       </c>
       <c r="D53">
         <v>53</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F53" s="2" t="s">
+      <c r="E53" t="s">
+        <v>567</v>
+      </c>
+      <c r="F53" t="s">
         <v>569</v>
       </c>
       <c r="G53">
@@ -11556,22 +11564,22 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="2" t="s">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
       <c r="B54">
         <v>30491321490</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="C54" t="s">
         <v>566</v>
       </c>
       <c r="D54">
         <v>54</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F54" s="2" t="s">
+      <c r="E54" t="s">
+        <v>567</v>
+      </c>
+      <c r="F54" t="s">
         <v>569</v>
       </c>
       <c r="G54">
@@ -11582,22 +11590,22 @@
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
+      <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55">
         <v>30141020336</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" t="s">
         <v>566</v>
       </c>
       <c r="D55">
         <v>55</v>
       </c>
-      <c r="E55" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F55" s="2" t="s">
+      <c r="E55" t="s">
+        <v>567</v>
+      </c>
+      <c r="F55" t="s">
         <v>570</v>
       </c>
       <c r="G55">
@@ -11608,22 +11616,22 @@
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="2" t="s">
+      <c r="A56" t="s">
         <v>54</v>
       </c>
       <c r="B56">
         <v>30491321491</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" t="s">
         <v>566</v>
       </c>
       <c r="D56">
         <v>56</v>
       </c>
-      <c r="E56" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F56" s="2" t="s">
+      <c r="E56" t="s">
+        <v>567</v>
+      </c>
+      <c r="F56" t="s">
         <v>569</v>
       </c>
       <c r="G56">
@@ -11634,22 +11642,22 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="2" t="s">
+      <c r="A57" t="s">
         <v>55</v>
       </c>
       <c r="B57">
         <v>30491220463</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" t="s">
         <v>566</v>
       </c>
       <c r="D57">
         <v>57</v>
       </c>
-      <c r="E57" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F57" s="2" t="s">
+      <c r="E57" t="s">
+        <v>567</v>
+      </c>
+      <c r="F57" t="s">
         <v>569</v>
       </c>
       <c r="G57">
@@ -11660,22 +11668,22 @@
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="2" t="s">
+      <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58">
         <v>30491221595</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" t="s">
         <v>566</v>
       </c>
       <c r="D58">
         <v>58</v>
       </c>
-      <c r="E58" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F58" s="2" t="s">
+      <c r="E58" t="s">
+        <v>567</v>
+      </c>
+      <c r="F58" t="s">
         <v>569</v>
       </c>
       <c r="G58">
@@ -11686,22 +11694,22 @@
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="2" t="s">
+      <c r="A59" t="s">
         <v>57</v>
       </c>
       <c r="B59">
         <v>30491220440</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" t="s">
         <v>566</v>
       </c>
       <c r="D59">
         <v>59</v>
       </c>
-      <c r="E59" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F59" s="2" t="s">
+      <c r="E59" t="s">
+        <v>567</v>
+      </c>
+      <c r="F59" t="s">
         <v>569</v>
       </c>
       <c r="G59">
@@ -11712,22 +11720,22 @@
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>58</v>
       </c>
       <c r="B60">
         <v>30491321492</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" t="s">
         <v>566</v>
       </c>
       <c r="D60">
         <v>60</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F60" s="2" t="s">
+      <c r="E60" t="s">
+        <v>567</v>
+      </c>
+      <c r="F60" t="s">
         <v>569</v>
       </c>
       <c r="G60">
@@ -11738,22 +11746,22 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="2" t="s">
+      <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61">
         <v>30141021407</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" t="s">
         <v>566</v>
       </c>
       <c r="D61">
         <v>61</v>
       </c>
-      <c r="E61" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F61" s="2" t="s">
+      <c r="E61" t="s">
+        <v>567</v>
+      </c>
+      <c r="F61" t="s">
         <v>570</v>
       </c>
       <c r="G61">
@@ -11764,22 +11772,22 @@
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="2" t="s">
+      <c r="A62" t="s">
         <v>60</v>
       </c>
       <c r="B62">
         <v>30141121366</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" t="s">
         <v>566</v>
       </c>
       <c r="D62">
         <v>62</v>
       </c>
-      <c r="E62" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F62" s="2" t="s">
+      <c r="E62" t="s">
+        <v>567</v>
+      </c>
+      <c r="F62" t="s">
         <v>570</v>
       </c>
       <c r="G62">
@@ -11790,22 +11798,22 @@
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="2" t="s">
+      <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63">
         <v>30141020337</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" t="s">
         <v>566</v>
       </c>
       <c r="D63">
         <v>63</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F63" s="2" t="s">
+      <c r="E63" t="s">
+        <v>567</v>
+      </c>
+      <c r="F63" t="s">
         <v>570</v>
       </c>
       <c r="G63">
@@ -11816,22 +11824,22 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
+      <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64">
         <v>30491220464</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" t="s">
         <v>566</v>
       </c>
       <c r="D64">
         <v>64</v>
       </c>
-      <c r="E64" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F64" s="2" t="s">
+      <c r="E64" t="s">
+        <v>567</v>
+      </c>
+      <c r="F64" t="s">
         <v>569</v>
       </c>
       <c r="G64">
@@ -11842,22 +11850,22 @@
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="2" t="s">
+      <c r="A65" t="s">
         <v>63</v>
       </c>
       <c r="B65">
         <v>3034520072</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" t="s">
         <v>566</v>
       </c>
       <c r="D65">
         <v>65</v>
       </c>
-      <c r="E65" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F65" s="2" t="s">
+      <c r="E65" t="s">
+        <v>567</v>
+      </c>
+      <c r="F65" t="s">
         <v>568</v>
       </c>
       <c r="G65">
@@ -11868,22 +11876,22 @@
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="2" t="s">
+      <c r="A66" t="s">
         <v>64</v>
       </c>
       <c r="B66">
         <v>3034521106</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" t="s">
         <v>566</v>
       </c>
       <c r="D66">
         <v>66</v>
       </c>
-      <c r="E66" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F66" s="2" t="s">
+      <c r="E66" t="s">
+        <v>567</v>
+      </c>
+      <c r="F66" t="s">
         <v>568</v>
       </c>
       <c r="G66">
@@ -11894,22 +11902,22 @@
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>65</v>
       </c>
       <c r="B67">
         <v>3034521107</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" t="s">
         <v>566</v>
       </c>
       <c r="D67">
         <v>67</v>
       </c>
-      <c r="E67" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F67" s="2" t="s">
+      <c r="E67" t="s">
+        <v>567</v>
+      </c>
+      <c r="F67" t="s">
         <v>568</v>
       </c>
       <c r="G67">
@@ -11920,22 +11928,22 @@
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>66</v>
       </c>
       <c r="B68">
         <v>30491321493</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" t="s">
         <v>566</v>
       </c>
       <c r="D68">
         <v>68</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F68" s="2" t="s">
+      <c r="E68" t="s">
+        <v>567</v>
+      </c>
+      <c r="F68" t="s">
         <v>569</v>
       </c>
       <c r="G68">
@@ -11946,22 +11954,22 @@
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="2" t="s">
+      <c r="A69" t="s">
         <v>67</v>
       </c>
       <c r="B69">
         <v>30141021388</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" t="s">
         <v>566</v>
       </c>
       <c r="D69">
         <v>69</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F69" s="2" t="s">
+      <c r="E69" t="s">
+        <v>567</v>
+      </c>
+      <c r="F69" t="s">
         <v>570</v>
       </c>
       <c r="G69">
@@ -11972,22 +11980,22 @@
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="2" t="s">
+      <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70">
         <v>30491220465</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" t="s">
         <v>566</v>
       </c>
       <c r="D70">
         <v>70</v>
       </c>
-      <c r="E70" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F70" s="2" t="s">
+      <c r="E70" t="s">
+        <v>567</v>
+      </c>
+      <c r="F70" t="s">
         <v>569</v>
       </c>
       <c r="G70">
@@ -11998,22 +12006,22 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>69</v>
       </c>
       <c r="B71">
         <v>30491220442</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" t="s">
         <v>566</v>
       </c>
       <c r="D71">
         <v>71</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F71" s="2" t="s">
+      <c r="E71" t="s">
+        <v>567</v>
+      </c>
+      <c r="F71" t="s">
         <v>568</v>
       </c>
       <c r="G71">
@@ -12024,22 +12032,22 @@
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>70</v>
       </c>
       <c r="B72">
         <v>30491321494</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" t="s">
         <v>566</v>
       </c>
       <c r="D72">
         <v>72</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F72" s="2" t="s">
+      <c r="E72" t="s">
+        <v>567</v>
+      </c>
+      <c r="F72" t="s">
         <v>569</v>
       </c>
       <c r="G72">
@@ -12050,22 +12058,22 @@
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="2" t="s">
+      <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73">
         <v>30141021408</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" t="s">
         <v>566</v>
       </c>
       <c r="D73">
         <v>73</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F73" s="2" t="s">
+      <c r="E73" t="s">
+        <v>567</v>
+      </c>
+      <c r="F73" t="s">
         <v>570</v>
       </c>
       <c r="G73">
@@ -12076,22 +12084,22 @@
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="2" t="s">
+      <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74">
         <v>30141020338</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" t="s">
         <v>566</v>
       </c>
       <c r="D74">
         <v>74</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F74" s="2" t="s">
+      <c r="E74" t="s">
+        <v>567</v>
+      </c>
+      <c r="F74" t="s">
         <v>570</v>
       </c>
       <c r="G74">
@@ -12102,22 +12110,22 @@
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="2" t="s">
+      <c r="A75" t="s">
         <v>73</v>
       </c>
       <c r="B75">
         <v>30491221559</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C75" t="s">
         <v>566</v>
       </c>
       <c r="D75">
         <v>75</v>
       </c>
-      <c r="E75" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F75" s="2" t="s">
+      <c r="E75" t="s">
+        <v>567</v>
+      </c>
+      <c r="F75" t="s">
         <v>569</v>
       </c>
       <c r="G75">
@@ -12128,22 +12136,22 @@
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="2" t="s">
+      <c r="A76" t="s">
         <v>74</v>
       </c>
       <c r="B76">
         <v>30491221596</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C76" t="s">
         <v>566</v>
       </c>
       <c r="D76">
         <v>76</v>
       </c>
-      <c r="E76" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F76" s="2" t="s">
+      <c r="E76" t="s">
+        <v>567</v>
+      </c>
+      <c r="F76" t="s">
         <v>569</v>
       </c>
       <c r="G76">
@@ -12154,22 +12162,22 @@
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="2" t="s">
+      <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77">
         <v>30141021389</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C77" t="s">
         <v>565</v>
       </c>
       <c r="D77">
         <v>77</v>
       </c>
-      <c r="E77" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F77" s="2" t="s">
+      <c r="E77" t="s">
+        <v>567</v>
+      </c>
+      <c r="F77" t="s">
         <v>570</v>
       </c>
       <c r="G77">
@@ -12180,22 +12188,22 @@
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="2" t="s">
+      <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78">
         <v>30141022384</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C78" t="s">
         <v>565</v>
       </c>
       <c r="D78">
         <v>78</v>
       </c>
-      <c r="E78" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F78" s="2" t="s">
+      <c r="E78" t="s">
+        <v>567</v>
+      </c>
+      <c r="F78" t="s">
         <v>570</v>
       </c>
       <c r="G78">
@@ -12206,22 +12214,22 @@
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>77</v>
       </c>
       <c r="B79">
         <v>30141121367</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C79" t="s">
         <v>566</v>
       </c>
       <c r="D79">
         <v>79</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F79" s="2" t="s">
+      <c r="E79" t="s">
+        <v>567</v>
+      </c>
+      <c r="F79" t="s">
         <v>570</v>
       </c>
       <c r="G79">
@@ -12232,22 +12240,22 @@
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>78</v>
       </c>
       <c r="B80">
         <v>30141020339</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C80" t="s">
         <v>566</v>
       </c>
       <c r="D80">
         <v>80</v>
       </c>
-      <c r="E80" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F80" s="2" t="s">
+      <c r="E80" t="s">
+        <v>567</v>
+      </c>
+      <c r="F80" t="s">
         <v>570</v>
       </c>
       <c r="G80">
@@ -12258,22 +12266,22 @@
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
+      <c r="A81" t="s">
         <v>79</v>
       </c>
       <c r="B81">
         <v>3034521119</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C81" t="s">
         <v>566</v>
       </c>
       <c r="D81">
         <v>81</v>
       </c>
-      <c r="E81" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F81" s="2" t="s">
+      <c r="E81" t="s">
+        <v>567</v>
+      </c>
+      <c r="F81" t="s">
         <v>568</v>
       </c>
       <c r="G81">
@@ -12284,22 +12292,22 @@
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="2" t="s">
+      <c r="A82" t="s">
         <v>80</v>
       </c>
       <c r="B82">
         <v>30141020340</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C82" t="s">
         <v>566</v>
       </c>
       <c r="D82">
         <v>82</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F82" s="2" t="s">
+      <c r="E82" t="s">
+        <v>567</v>
+      </c>
+      <c r="F82" t="s">
         <v>570</v>
       </c>
       <c r="G82">
@@ -12310,22 +12318,22 @@
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="2" t="s">
+      <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83">
         <v>30141020341</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C83" t="s">
         <v>566</v>
       </c>
       <c r="D83">
         <v>83</v>
       </c>
-      <c r="E83" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F83" s="2" t="s">
+      <c r="E83" t="s">
+        <v>567</v>
+      </c>
+      <c r="F83" t="s">
         <v>570</v>
       </c>
       <c r="G83">
@@ -12336,22 +12344,22 @@
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="2" t="s">
+      <c r="A84" t="s">
         <v>82</v>
       </c>
       <c r="B84">
         <v>30491220443</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C84" t="s">
         <v>566</v>
       </c>
       <c r="D84">
         <v>84</v>
       </c>
-      <c r="E84" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F84" s="2" t="s">
+      <c r="E84" t="s">
+        <v>567</v>
+      </c>
+      <c r="F84" t="s">
         <v>569</v>
       </c>
       <c r="G84">
@@ -12362,22 +12370,22 @@
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="2" t="s">
+      <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85">
         <v>30491321495</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C85" t="s">
         <v>566</v>
       </c>
       <c r="D85">
         <v>85</v>
       </c>
-      <c r="E85" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F85" s="2" t="s">
+      <c r="E85" t="s">
+        <v>567</v>
+      </c>
+      <c r="F85" t="s">
         <v>569</v>
       </c>
       <c r="G85">
@@ -12388,22 +12396,22 @@
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="2" t="s">
+      <c r="A86" t="s">
         <v>84</v>
       </c>
       <c r="B86">
         <v>30141121368</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="C86" t="s">
         <v>566</v>
       </c>
       <c r="D86">
         <v>86</v>
       </c>
-      <c r="E86" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F86" s="2" t="s">
+      <c r="E86" t="s">
+        <v>567</v>
+      </c>
+      <c r="F86" t="s">
         <v>570</v>
       </c>
       <c r="G86">
@@ -12414,22 +12422,22 @@
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="2" t="s">
+      <c r="A87" t="s">
         <v>85</v>
       </c>
       <c r="B87">
         <v>30141121369</v>
       </c>
-      <c r="C87" s="2" t="s">
+      <c r="C87" t="s">
         <v>566</v>
       </c>
       <c r="D87">
         <v>87</v>
       </c>
-      <c r="E87" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F87" s="2" t="s">
+      <c r="E87" t="s">
+        <v>567</v>
+      </c>
+      <c r="F87" t="s">
         <v>570</v>
       </c>
       <c r="G87">
@@ -12440,22 +12448,22 @@
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="2" t="s">
+      <c r="A88" t="s">
         <v>86</v>
       </c>
       <c r="B88">
         <v>3034521108</v>
       </c>
-      <c r="C88" s="2" t="s">
+      <c r="C88" t="s">
         <v>566</v>
       </c>
       <c r="D88">
         <v>88</v>
       </c>
-      <c r="E88" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F88" s="2" t="s">
+      <c r="E88" t="s">
+        <v>567</v>
+      </c>
+      <c r="F88" t="s">
         <v>568</v>
       </c>
       <c r="G88">
@@ -12466,22 +12474,22 @@
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="2" t="s">
+      <c r="A89" t="s">
         <v>87</v>
       </c>
       <c r="B89">
         <v>30491221560</v>
       </c>
-      <c r="C89" s="2" t="s">
+      <c r="C89" t="s">
         <v>566</v>
       </c>
       <c r="D89">
         <v>89</v>
       </c>
-      <c r="E89" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F89" s="2" t="s">
+      <c r="E89" t="s">
+        <v>567</v>
+      </c>
+      <c r="F89" t="s">
         <v>569</v>
       </c>
       <c r="G89">
@@ -12492,22 +12500,22 @@
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="2" t="s">
+      <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90">
         <v>30141020342</v>
       </c>
-      <c r="C90" s="2" t="s">
+      <c r="C90" t="s">
         <v>566</v>
       </c>
       <c r="D90">
         <v>90</v>
       </c>
-      <c r="E90" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F90" s="2" t="s">
+      <c r="E90" t="s">
+        <v>567</v>
+      </c>
+      <c r="F90" t="s">
         <v>570</v>
       </c>
       <c r="G90">
@@ -12518,22 +12526,22 @@
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="2" t="s">
+      <c r="A91" t="s">
         <v>89</v>
       </c>
       <c r="B91">
         <v>30141020343</v>
       </c>
-      <c r="C91" s="2" t="s">
+      <c r="C91" t="s">
         <v>566</v>
       </c>
       <c r="D91">
         <v>91</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F91" s="2" t="s">
+      <c r="E91" t="s">
+        <v>567</v>
+      </c>
+      <c r="F91" t="s">
         <v>570</v>
       </c>
       <c r="G91">
@@ -12544,22 +12552,22 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92">
         <v>30491221597</v>
       </c>
-      <c r="C92" s="2" t="s">
+      <c r="C92" t="s">
         <v>566</v>
       </c>
       <c r="D92">
         <v>92</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F92" s="2" t="s">
+      <c r="E92" t="s">
+        <v>567</v>
+      </c>
+      <c r="F92" t="s">
         <v>569</v>
       </c>
       <c r="G92">
@@ -12570,22 +12578,22 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="2" t="s">
+      <c r="A93" t="s">
         <v>91</v>
       </c>
       <c r="B93">
         <v>30491220466</v>
       </c>
-      <c r="C93" s="2" t="s">
+      <c r="C93" t="s">
         <v>566</v>
       </c>
       <c r="D93">
         <v>93</v>
       </c>
-      <c r="E93" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F93" s="2" t="s">
+      <c r="E93" t="s">
+        <v>567</v>
+      </c>
+      <c r="F93" t="s">
         <v>569</v>
       </c>
       <c r="G93">
@@ -12596,22 +12604,22 @@
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="2" t="s">
+      <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94">
         <v>30141020344</v>
       </c>
-      <c r="C94" s="2" t="s">
+      <c r="C94" t="s">
         <v>566</v>
       </c>
       <c r="D94">
         <v>94</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F94" s="2" t="s">
+      <c r="E94" t="s">
+        <v>567</v>
+      </c>
+      <c r="F94" t="s">
         <v>570</v>
       </c>
       <c r="G94">
@@ -12622,22 +12630,22 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="2" t="s">
+      <c r="A95" t="s">
         <v>93</v>
       </c>
       <c r="B95">
         <v>3034621084</v>
       </c>
-      <c r="C95" s="2" t="s">
+      <c r="C95" t="s">
         <v>565</v>
       </c>
       <c r="D95">
         <v>95</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F95" s="2" t="s">
+      <c r="E95" t="s">
+        <v>567</v>
+      </c>
+      <c r="F95" t="s">
         <v>568</v>
       </c>
       <c r="G95">
@@ -12648,22 +12656,22 @@
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="2" t="s">
+      <c r="A96" t="s">
         <v>94</v>
       </c>
       <c r="B96">
         <v>30491220444</v>
       </c>
-      <c r="C96" s="2" t="s">
+      <c r="C96" t="s">
         <v>566</v>
       </c>
       <c r="D96">
         <v>96</v>
       </c>
-      <c r="E96" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F96" s="2" t="s">
+      <c r="E96" t="s">
+        <v>567</v>
+      </c>
+      <c r="F96" t="s">
         <v>569</v>
       </c>
       <c r="G96">
@@ -12674,22 +12682,22 @@
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="2" t="s">
+      <c r="A97" t="s">
         <v>95</v>
       </c>
       <c r="B97">
         <v>30491221561</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C97" t="s">
         <v>566</v>
       </c>
       <c r="D97">
         <v>97</v>
       </c>
-      <c r="E97" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F97" s="2" t="s">
+      <c r="E97" t="s">
+        <v>567</v>
+      </c>
+      <c r="F97" t="s">
         <v>569</v>
       </c>
       <c r="G97">
@@ -12700,22 +12708,22 @@
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
+      <c r="A98" t="s">
         <v>96</v>
       </c>
       <c r="B98">
         <v>30141121370</v>
       </c>
-      <c r="C98" s="2" t="s">
+      <c r="C98" t="s">
         <v>566</v>
       </c>
       <c r="D98">
         <v>98</v>
       </c>
-      <c r="E98" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F98" s="2" t="s">
+      <c r="E98" t="s">
+        <v>567</v>
+      </c>
+      <c r="F98" t="s">
         <v>570</v>
       </c>
       <c r="G98">
@@ -12726,22 +12734,22 @@
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="2" t="s">
+      <c r="A99" t="s">
         <v>97</v>
       </c>
       <c r="B99">
         <v>30141021390</v>
       </c>
-      <c r="C99" s="2" t="s">
+      <c r="C99" t="s">
         <v>566</v>
       </c>
       <c r="D99">
         <v>99</v>
       </c>
-      <c r="E99" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F99" s="2" t="s">
+      <c r="E99" t="s">
+        <v>567</v>
+      </c>
+      <c r="F99" t="s">
         <v>570</v>
       </c>
       <c r="G99">
@@ -12752,22 +12760,22 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="2" t="s">
+      <c r="A100" t="s">
         <v>98</v>
       </c>
       <c r="B100">
         <v>30491220467</v>
       </c>
-      <c r="C100" s="2" t="s">
+      <c r="C100" t="s">
         <v>566</v>
       </c>
       <c r="D100">
         <v>100</v>
       </c>
-      <c r="E100" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F100" s="2" t="s">
+      <c r="E100" t="s">
+        <v>567</v>
+      </c>
+      <c r="F100" t="s">
         <v>569</v>
       </c>
       <c r="G100">
@@ -12778,22 +12786,22 @@
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
+      <c r="A101" t="s">
         <v>99</v>
       </c>
       <c r="B101">
         <v>30491220445</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" t="s">
         <v>566</v>
       </c>
       <c r="D101">
         <v>101</v>
       </c>
-      <c r="E101" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F101" s="2" t="s">
+      <c r="E101" t="s">
+        <v>567</v>
+      </c>
+      <c r="F101" t="s">
         <v>569</v>
       </c>
       <c r="G101">
@@ -12804,22 +12812,22 @@
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="2" t="s">
+      <c r="A102" t="s">
         <v>100</v>
       </c>
       <c r="B102">
         <v>30491221598</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C102" t="s">
         <v>565</v>
       </c>
       <c r="D102">
         <v>102</v>
       </c>
-      <c r="E102" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F102" s="2" t="s">
+      <c r="E102" t="s">
+        <v>567</v>
+      </c>
+      <c r="F102" t="s">
         <v>569</v>
       </c>
       <c r="G102">
@@ -12830,22 +12838,22 @@
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="2" t="s">
+      <c r="A103" t="s">
         <v>101</v>
       </c>
       <c r="B103">
         <v>30141021409</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="C103" t="s">
         <v>565</v>
       </c>
       <c r="D103">
         <v>103</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F103" s="2" t="s">
+      <c r="E103" t="s">
+        <v>567</v>
+      </c>
+      <c r="F103" t="s">
         <v>570</v>
       </c>
       <c r="G103">
@@ -12856,22 +12864,22 @@
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="2" t="s">
+      <c r="A104" t="s">
         <v>102</v>
       </c>
       <c r="B104">
         <v>30491220468</v>
       </c>
-      <c r="C104" s="2" t="s">
+      <c r="C104" t="s">
         <v>565</v>
       </c>
       <c r="D104">
         <v>104</v>
       </c>
-      <c r="E104" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F104" s="2" t="s">
+      <c r="E104" t="s">
+        <v>567</v>
+      </c>
+      <c r="F104" t="s">
         <v>569</v>
       </c>
       <c r="G104">
@@ -12882,22 +12890,22 @@
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="2" t="s">
+      <c r="A105" t="s">
         <v>103</v>
       </c>
       <c r="B105">
         <v>30491221562</v>
       </c>
-      <c r="C105" s="2" t="s">
+      <c r="C105" t="s">
         <v>566</v>
       </c>
       <c r="D105">
         <v>105</v>
       </c>
-      <c r="E105" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F105" s="2" t="s">
+      <c r="E105" t="s">
+        <v>567</v>
+      </c>
+      <c r="F105" t="s">
         <v>569</v>
       </c>
       <c r="G105">
@@ -12908,22 +12916,22 @@
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="2" t="s">
+      <c r="A106" t="s">
         <v>104</v>
       </c>
       <c r="B106">
         <v>3034621086</v>
       </c>
-      <c r="C106" s="2" t="s">
+      <c r="C106" t="s">
         <v>566</v>
       </c>
       <c r="D106">
         <v>106</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F106" s="2" t="s">
+      <c r="E106" t="s">
+        <v>567</v>
+      </c>
+      <c r="F106" t="s">
         <v>568</v>
       </c>
       <c r="G106">
@@ -12934,22 +12942,22 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="2" t="s">
+      <c r="A107" t="s">
         <v>105</v>
       </c>
       <c r="B107">
         <v>30141121371</v>
       </c>
-      <c r="C107" s="2" t="s">
+      <c r="C107" t="s">
         <v>566</v>
       </c>
       <c r="D107">
         <v>107</v>
       </c>
-      <c r="E107" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F107" s="2" t="s">
+      <c r="E107" t="s">
+        <v>567</v>
+      </c>
+      <c r="F107" t="s">
         <v>570</v>
       </c>
       <c r="G107">
@@ -12960,22 +12968,22 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="2" t="s">
+      <c r="A108" t="s">
         <v>106</v>
       </c>
       <c r="B108">
         <v>30491221599</v>
       </c>
-      <c r="C108" s="2" t="s">
+      <c r="C108" t="s">
         <v>566</v>
       </c>
       <c r="D108">
         <v>108</v>
       </c>
-      <c r="E108" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F108" s="2" t="s">
+      <c r="E108" t="s">
+        <v>567</v>
+      </c>
+      <c r="F108" t="s">
         <v>569</v>
       </c>
       <c r="G108">
@@ -12986,22 +12994,22 @@
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="2" t="s">
+      <c r="A109" t="s">
         <v>107</v>
       </c>
       <c r="B109">
         <v>30491221563</v>
       </c>
-      <c r="C109" s="2" t="s">
+      <c r="C109" t="s">
         <v>565</v>
       </c>
       <c r="D109">
         <v>109</v>
       </c>
-      <c r="E109" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F109" s="2" t="s">
+      <c r="E109" t="s">
+        <v>567</v>
+      </c>
+      <c r="F109" t="s">
         <v>569</v>
       </c>
       <c r="G109">
@@ -13012,22 +13020,22 @@
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="2" t="s">
+      <c r="A110" t="s">
         <v>108</v>
       </c>
       <c r="B110">
         <v>3034621087</v>
       </c>
-      <c r="C110" s="2" t="s">
+      <c r="C110" t="s">
         <v>566</v>
       </c>
       <c r="D110">
         <v>110</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F110" s="2" t="s">
+      <c r="E110" t="s">
+        <v>567</v>
+      </c>
+      <c r="F110" t="s">
         <v>568</v>
       </c>
       <c r="G110">
@@ -13038,22 +13046,22 @@
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="2" t="s">
+      <c r="A111" t="s">
         <v>109</v>
       </c>
       <c r="B111">
         <v>30141020345</v>
       </c>
-      <c r="C111" s="2" t="s">
+      <c r="C111" t="s">
         <v>566</v>
       </c>
       <c r="D111">
         <v>111</v>
       </c>
-      <c r="E111" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="E111" t="s">
+        <v>567</v>
+      </c>
+      <c r="F111" t="s">
         <v>570</v>
       </c>
       <c r="G111">
@@ -13064,22 +13072,22 @@
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="2" t="s">
+      <c r="A112" t="s">
         <v>110</v>
       </c>
       <c r="B112">
         <v>30491221600</v>
       </c>
-      <c r="C112" s="2" t="s">
+      <c r="C112" t="s">
         <v>566</v>
       </c>
       <c r="D112">
         <v>112</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F112" s="2" t="s">
+      <c r="E112" t="s">
+        <v>567</v>
+      </c>
+      <c r="F112" t="s">
         <v>569</v>
       </c>
       <c r="G112">
@@ -13090,22 +13098,22 @@
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="2" t="s">
+      <c r="A113" t="s">
         <v>111</v>
       </c>
       <c r="B113">
         <v>30141020346</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" t="s">
         <v>566</v>
       </c>
       <c r="D113">
         <v>113</v>
       </c>
-      <c r="E113" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F113" s="2" t="s">
+      <c r="E113" t="s">
+        <v>567</v>
+      </c>
+      <c r="F113" t="s">
         <v>570</v>
       </c>
       <c r="G113">
@@ -13116,22 +13124,22 @@
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="2" t="s">
+      <c r="A114" t="s">
         <v>112</v>
       </c>
       <c r="B114">
         <v>3034621088</v>
       </c>
-      <c r="C114" s="2" t="s">
+      <c r="C114" t="s">
         <v>566</v>
       </c>
       <c r="D114">
         <v>114</v>
       </c>
-      <c r="E114" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F114" s="2" t="s">
+      <c r="E114" t="s">
+        <v>567</v>
+      </c>
+      <c r="F114" t="s">
         <v>568</v>
       </c>
       <c r="G114">
@@ -13142,22 +13150,22 @@
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="2" t="s">
+      <c r="A115" t="s">
         <v>113</v>
       </c>
       <c r="B115">
         <v>3034521109</v>
       </c>
-      <c r="C115" s="2" t="s">
+      <c r="C115" t="s">
         <v>566</v>
       </c>
       <c r="D115">
         <v>115</v>
       </c>
-      <c r="E115" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F115" s="2" t="s">
+      <c r="E115" t="s">
+        <v>567</v>
+      </c>
+      <c r="F115" t="s">
         <v>568</v>
       </c>
       <c r="G115">
@@ -13168,22 +13176,22 @@
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116" s="2" t="s">
+      <c r="A116" t="s">
         <v>114</v>
       </c>
       <c r="B116">
         <v>30141020347</v>
       </c>
-      <c r="C116" s="2" t="s">
+      <c r="C116" t="s">
         <v>566</v>
       </c>
       <c r="D116">
         <v>116</v>
       </c>
-      <c r="E116" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F116" s="2" t="s">
+      <c r="E116" t="s">
+        <v>567</v>
+      </c>
+      <c r="F116" t="s">
         <v>570</v>
       </c>
       <c r="G116">
@@ -13194,22 +13202,22 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="2" t="s">
+      <c r="A117" t="s">
         <v>115</v>
       </c>
       <c r="B117">
         <v>30141021410</v>
       </c>
-      <c r="C117" s="2" t="s">
+      <c r="C117" t="s">
         <v>566</v>
       </c>
       <c r="D117">
         <v>117</v>
       </c>
-      <c r="E117" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F117" s="2" t="s">
+      <c r="E117" t="s">
+        <v>567</v>
+      </c>
+      <c r="F117" t="s">
         <v>570</v>
       </c>
       <c r="G117">
@@ -13220,22 +13228,22 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="2" t="s">
+      <c r="A118" t="s">
         <v>116</v>
       </c>
       <c r="B118">
         <v>30491220446</v>
       </c>
-      <c r="C118" s="2" t="s">
+      <c r="C118" t="s">
         <v>566</v>
       </c>
       <c r="D118">
         <v>118</v>
       </c>
-      <c r="E118" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F118" s="2" t="s">
+      <c r="E118" t="s">
+        <v>567</v>
+      </c>
+      <c r="F118" t="s">
         <v>569</v>
       </c>
       <c r="G118">
@@ -13246,22 +13254,22 @@
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="2" t="s">
+      <c r="A119" t="s">
         <v>117</v>
       </c>
       <c r="B119">
         <v>30491321496</v>
       </c>
-      <c r="C119" s="2" t="s">
+      <c r="C119" t="s">
         <v>565</v>
       </c>
       <c r="D119">
         <v>119</v>
       </c>
-      <c r="E119" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F119" s="2" t="s">
+      <c r="E119" t="s">
+        <v>567</v>
+      </c>
+      <c r="F119" t="s">
         <v>569</v>
       </c>
       <c r="G119">
@@ -13272,22 +13280,22 @@
       </c>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="2" t="s">
+      <c r="A120" t="s">
         <v>118</v>
       </c>
       <c r="B120">
         <v>3034621089</v>
       </c>
-      <c r="C120" s="2" t="s">
+      <c r="C120" t="s">
         <v>566</v>
       </c>
       <c r="D120">
         <v>120</v>
       </c>
-      <c r="E120" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F120" s="2" t="s">
+      <c r="E120" t="s">
+        <v>567</v>
+      </c>
+      <c r="F120" t="s">
         <v>568</v>
       </c>
       <c r="G120">
@@ -13298,22 +13306,22 @@
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="2" t="s">
+      <c r="A121" t="s">
         <v>119</v>
       </c>
       <c r="B121">
         <v>3034621090</v>
       </c>
-      <c r="C121" s="2" t="s">
+      <c r="C121" t="s">
         <v>566</v>
       </c>
       <c r="D121">
         <v>121</v>
       </c>
-      <c r="E121" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F121" s="2" t="s">
+      <c r="E121" t="s">
+        <v>567</v>
+      </c>
+      <c r="F121" t="s">
         <v>568</v>
       </c>
       <c r="G121">
@@ -13324,22 +13332,22 @@
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="2" t="s">
+      <c r="A122" t="s">
         <v>120</v>
       </c>
       <c r="B122">
         <v>30491220469</v>
       </c>
-      <c r="C122" s="2" t="s">
+      <c r="C122" t="s">
         <v>566</v>
       </c>
       <c r="D122">
         <v>122</v>
       </c>
-      <c r="E122" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F122" s="2" t="s">
+      <c r="E122" t="s">
+        <v>567</v>
+      </c>
+      <c r="F122" t="s">
         <v>569</v>
       </c>
       <c r="G122">
@@ -13350,22 +13358,22 @@
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="2" t="s">
+      <c r="A123" t="s">
         <v>121</v>
       </c>
       <c r="B123">
         <v>30141021391</v>
       </c>
-      <c r="C123" s="2" t="s">
+      <c r="C123" t="s">
         <v>566</v>
       </c>
       <c r="D123">
         <v>123</v>
       </c>
-      <c r="E123" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F123" s="2" t="s">
+      <c r="E123" t="s">
+        <v>567</v>
+      </c>
+      <c r="F123" t="s">
         <v>570</v>
       </c>
       <c r="G123">
@@ -13376,22 +13384,22 @@
       </c>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="2" t="s">
+      <c r="A124" t="s">
         <v>122</v>
       </c>
       <c r="B124">
         <v>3034521110</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" t="s">
         <v>566</v>
       </c>
       <c r="D124">
         <v>124</v>
       </c>
-      <c r="E124" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F124" s="2" t="s">
+      <c r="E124" t="s">
+        <v>567</v>
+      </c>
+      <c r="F124" t="s">
         <v>568</v>
       </c>
       <c r="G124">
@@ -13402,22 +13410,22 @@
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="2" t="s">
+      <c r="A125" t="s">
         <v>123</v>
       </c>
       <c r="B125">
         <v>30491221564</v>
       </c>
-      <c r="C125" s="2" t="s">
+      <c r="C125" t="s">
         <v>566</v>
       </c>
       <c r="D125">
         <v>125</v>
       </c>
-      <c r="E125" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F125" s="2" t="s">
+      <c r="E125" t="s">
+        <v>567</v>
+      </c>
+      <c r="F125" t="s">
         <v>569</v>
       </c>
       <c r="G125">
@@ -13428,22 +13436,22 @@
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="2" t="s">
+      <c r="A126" t="s">
         <v>124</v>
       </c>
       <c r="B126">
         <v>30491221601</v>
       </c>
-      <c r="C126" s="2" t="s">
+      <c r="C126" t="s">
         <v>566</v>
       </c>
       <c r="D126">
         <v>126</v>
       </c>
-      <c r="E126" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F126" s="2" t="s">
+      <c r="E126" t="s">
+        <v>567</v>
+      </c>
+      <c r="F126" t="s">
         <v>569</v>
       </c>
       <c r="G126">
@@ -13454,22 +13462,22 @@
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="2" t="s">
+      <c r="A127" t="s">
         <v>125</v>
       </c>
       <c r="B127">
         <v>30491221565</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="C127" t="s">
         <v>566</v>
       </c>
       <c r="D127">
         <v>127</v>
       </c>
-      <c r="E127" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F127" s="2" t="s">
+      <c r="E127" t="s">
+        <v>567</v>
+      </c>
+      <c r="F127" t="s">
         <v>569</v>
       </c>
       <c r="G127">
@@ -13480,22 +13488,22 @@
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="2" t="s">
+      <c r="A128" t="s">
         <v>126</v>
       </c>
       <c r="B128">
         <v>30491321497</v>
       </c>
-      <c r="C128" s="2" t="s">
+      <c r="C128" t="s">
         <v>566</v>
       </c>
       <c r="D128">
         <v>128</v>
       </c>
-      <c r="E128" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F128" s="2" t="s">
+      <c r="E128" t="s">
+        <v>567</v>
+      </c>
+      <c r="F128" t="s">
         <v>569</v>
       </c>
       <c r="G128">
@@ -13506,22 +13514,22 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="2" t="s">
+      <c r="A129" t="s">
         <v>127</v>
       </c>
       <c r="B129">
         <v>30491221602</v>
       </c>
-      <c r="C129" s="2" t="s">
+      <c r="C129" t="s">
         <v>565</v>
       </c>
       <c r="D129">
         <v>129</v>
       </c>
-      <c r="E129" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F129" s="2" t="s">
+      <c r="E129" t="s">
+        <v>567</v>
+      </c>
+      <c r="F129" t="s">
         <v>569</v>
       </c>
       <c r="G129">
@@ -13532,22 +13540,22 @@
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="2" t="s">
+      <c r="A130" t="s">
         <v>128</v>
       </c>
       <c r="B130">
         <v>30141021392</v>
       </c>
-      <c r="C130" s="2" t="s">
+      <c r="C130" t="s">
         <v>566</v>
       </c>
       <c r="D130">
         <v>130</v>
       </c>
-      <c r="E130" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F130" s="2" t="s">
+      <c r="E130" t="s">
+        <v>567</v>
+      </c>
+      <c r="F130" t="s">
         <v>570</v>
       </c>
       <c r="G130">
@@ -13558,22 +13566,22 @@
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="2" t="s">
+      <c r="A131" t="s">
         <v>129</v>
       </c>
       <c r="B131">
         <v>30141021411</v>
       </c>
-      <c r="C131" s="2" t="s">
+      <c r="C131" t="s">
         <v>566</v>
       </c>
       <c r="D131">
         <v>131</v>
       </c>
-      <c r="E131" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F131" s="2" t="s">
+      <c r="E131" t="s">
+        <v>567</v>
+      </c>
+      <c r="F131" t="s">
         <v>570</v>
       </c>
       <c r="G131">
@@ -13584,22 +13592,22 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="2" t="s">
+      <c r="A132" t="s">
         <v>130</v>
       </c>
       <c r="B132">
         <v>30491221566</v>
       </c>
-      <c r="C132" s="2" t="s">
+      <c r="C132" t="s">
         <v>566</v>
       </c>
       <c r="D132">
         <v>132</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F132" s="2" t="s">
+      <c r="E132" t="s">
+        <v>567</v>
+      </c>
+      <c r="F132" t="s">
         <v>569</v>
       </c>
       <c r="G132">
@@ -13610,22 +13618,22 @@
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="2" t="s">
+      <c r="A133" t="s">
         <v>131</v>
       </c>
       <c r="B133">
         <v>30491221603</v>
       </c>
-      <c r="C133" s="2" t="s">
+      <c r="C133" t="s">
         <v>566</v>
       </c>
       <c r="D133">
         <v>133</v>
       </c>
-      <c r="E133" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F133" s="2" t="s">
+      <c r="E133" t="s">
+        <v>567</v>
+      </c>
+      <c r="F133" t="s">
         <v>569</v>
       </c>
       <c r="G133">
@@ -13636,22 +13644,22 @@
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134" s="2" t="s">
+      <c r="A134" t="s">
         <v>132</v>
       </c>
       <c r="B134">
         <v>30491321498</v>
       </c>
-      <c r="C134" s="2" t="s">
+      <c r="C134" t="s">
         <v>566</v>
       </c>
       <c r="D134">
         <v>134</v>
       </c>
-      <c r="E134" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F134" s="2" t="s">
+      <c r="E134" t="s">
+        <v>567</v>
+      </c>
+      <c r="F134" t="s">
         <v>569</v>
       </c>
       <c r="G134">
@@ -13662,22 +13670,22 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="2" t="s">
+      <c r="A135" t="s">
         <v>133</v>
       </c>
       <c r="B135">
         <v>30491220447</v>
       </c>
-      <c r="C135" s="2" t="s">
+      <c r="C135" t="s">
         <v>565</v>
       </c>
       <c r="D135">
         <v>135</v>
       </c>
-      <c r="E135" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F135" s="2" t="s">
+      <c r="E135" t="s">
+        <v>567</v>
+      </c>
+      <c r="F135" t="s">
         <v>569</v>
       </c>
       <c r="G135">
@@ -13688,22 +13696,22 @@
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="2" t="s">
+      <c r="A136" t="s">
         <v>134</v>
       </c>
       <c r="B136">
         <v>30491221567</v>
       </c>
-      <c r="C136" s="2" t="s">
+      <c r="C136" t="s">
         <v>566</v>
       </c>
       <c r="D136">
         <v>136</v>
       </c>
-      <c r="E136" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F136" s="2" t="s">
+      <c r="E136" t="s">
+        <v>567</v>
+      </c>
+      <c r="F136" t="s">
         <v>569</v>
       </c>
       <c r="G136">
@@ -13714,22 +13722,22 @@
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="2" t="s">
+      <c r="A137" t="s">
         <v>135</v>
       </c>
       <c r="B137">
         <v>30491221604</v>
       </c>
-      <c r="C137" s="2" t="s">
+      <c r="C137" t="s">
         <v>566</v>
       </c>
       <c r="D137">
         <v>137</v>
       </c>
-      <c r="E137" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F137" s="2" t="s">
+      <c r="E137" t="s">
+        <v>567</v>
+      </c>
+      <c r="F137" t="s">
         <v>569</v>
       </c>
       <c r="G137">
@@ -13740,22 +13748,22 @@
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138" s="2" t="s">
+      <c r="A138" t="s">
         <v>136</v>
       </c>
       <c r="B138">
         <v>30141121372</v>
       </c>
-      <c r="C138" s="2" t="s">
+      <c r="C138" t="s">
         <v>566</v>
       </c>
       <c r="D138">
         <v>138</v>
       </c>
-      <c r="E138" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F138" s="2" t="s">
+      <c r="E138" t="s">
+        <v>567</v>
+      </c>
+      <c r="F138" t="s">
         <v>570</v>
       </c>
       <c r="G138">
@@ -13766,22 +13774,22 @@
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="2" t="s">
+      <c r="A139" t="s">
         <v>137</v>
       </c>
       <c r="B139">
         <v>30141020349</v>
       </c>
-      <c r="C139" s="2" t="s">
+      <c r="C139" t="s">
         <v>566</v>
       </c>
       <c r="D139">
         <v>139</v>
       </c>
-      <c r="E139" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F139" s="2" t="s">
+      <c r="E139" t="s">
+        <v>567</v>
+      </c>
+      <c r="F139" t="s">
         <v>570</v>
       </c>
       <c r="G139">
@@ -13792,22 +13800,22 @@
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="2" t="s">
+      <c r="A140" t="s">
         <v>138</v>
       </c>
       <c r="B140">
         <v>30491220470</v>
       </c>
-      <c r="C140" s="2" t="s">
+      <c r="C140" t="s">
         <v>566</v>
       </c>
       <c r="D140">
         <v>140</v>
       </c>
-      <c r="E140" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F140" s="2" t="s">
+      <c r="E140" t="s">
+        <v>567</v>
+      </c>
+      <c r="F140" t="s">
         <v>569</v>
       </c>
       <c r="G140">
@@ -13818,22 +13826,22 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="2" t="s">
+      <c r="A141" t="s">
         <v>139</v>
       </c>
       <c r="B141">
         <v>30491221568</v>
       </c>
-      <c r="C141" s="2" t="s">
+      <c r="C141" t="s">
         <v>566</v>
       </c>
       <c r="D141">
         <v>141</v>
       </c>
-      <c r="E141" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F141" s="2" t="s">
+      <c r="E141" t="s">
+        <v>567</v>
+      </c>
+      <c r="F141" t="s">
         <v>569</v>
       </c>
       <c r="G141">
@@ -13844,22 +13852,22 @@
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" s="2" t="s">
+      <c r="A142" t="s">
         <v>140</v>
       </c>
       <c r="B142">
         <v>30491220448</v>
       </c>
-      <c r="C142" s="2" t="s">
+      <c r="C142" t="s">
         <v>565</v>
       </c>
       <c r="D142">
         <v>142</v>
       </c>
-      <c r="E142" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F142" s="2" t="s">
+      <c r="E142" t="s">
+        <v>567</v>
+      </c>
+      <c r="F142" t="s">
         <v>569</v>
       </c>
       <c r="G142">
@@ -13870,22 +13878,22 @@
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" s="2" t="s">
+      <c r="A143" t="s">
         <v>141</v>
       </c>
       <c r="B143">
         <v>30491221605</v>
       </c>
-      <c r="C143" s="2" t="s">
+      <c r="C143" t="s">
         <v>565</v>
       </c>
       <c r="D143">
         <v>143</v>
       </c>
-      <c r="E143" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F143" s="2" t="s">
+      <c r="E143" t="s">
+        <v>567</v>
+      </c>
+      <c r="F143" t="s">
         <v>569</v>
       </c>
       <c r="G143">
@@ -13896,22 +13904,22 @@
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144" s="2" t="s">
+      <c r="A144" t="s">
         <v>142</v>
       </c>
       <c r="B144">
         <v>30491321500</v>
       </c>
-      <c r="C144" s="2" t="s">
+      <c r="C144" t="s">
         <v>565</v>
       </c>
       <c r="D144">
         <v>144</v>
       </c>
-      <c r="E144" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F144" s="2" t="s">
+      <c r="E144" t="s">
+        <v>567</v>
+      </c>
+      <c r="F144" t="s">
         <v>569</v>
       </c>
       <c r="G144">
@@ -13922,22 +13930,22 @@
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A145" s="2" t="s">
+      <c r="A145" t="s">
         <v>143</v>
       </c>
       <c r="B145">
         <v>30491321499</v>
       </c>
-      <c r="C145" s="2" t="s">
+      <c r="C145" t="s">
         <v>565</v>
       </c>
       <c r="D145">
         <v>145</v>
       </c>
-      <c r="E145" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F145" s="2" t="s">
+      <c r="E145" t="s">
+        <v>567</v>
+      </c>
+      <c r="F145" t="s">
         <v>569</v>
       </c>
       <c r="G145">
@@ -13948,22 +13956,22 @@
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146" s="2" t="s">
+      <c r="A146" t="s">
         <v>144</v>
       </c>
       <c r="B146">
         <v>30491221569</v>
       </c>
-      <c r="C146" s="2" t="s">
+      <c r="C146" t="s">
         <v>565</v>
       </c>
       <c r="D146">
         <v>146</v>
       </c>
-      <c r="E146" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F146" s="2" t="s">
+      <c r="E146" t="s">
+        <v>567</v>
+      </c>
+      <c r="F146" t="s">
         <v>569</v>
       </c>
       <c r="G146">
@@ -13974,22 +13982,22 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A147" s="2" t="s">
+      <c r="A147" t="s">
         <v>145</v>
       </c>
       <c r="B147">
         <v>3034621091</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" t="s">
         <v>565</v>
       </c>
       <c r="D147">
         <v>147</v>
       </c>
-      <c r="E147" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F147" s="2" t="s">
+      <c r="E147" t="s">
+        <v>567</v>
+      </c>
+      <c r="F147" t="s">
         <v>568</v>
       </c>
       <c r="G147">
@@ -14000,22 +14008,22 @@
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A148" s="2" t="s">
+      <c r="A148" t="s">
         <v>146</v>
       </c>
       <c r="B148">
         <v>30141121373</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="C148" t="s">
         <v>565</v>
       </c>
       <c r="D148">
         <v>148</v>
       </c>
-      <c r="E148" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F148" s="2" t="s">
+      <c r="E148" t="s">
+        <v>567</v>
+      </c>
+      <c r="F148" t="s">
         <v>570</v>
       </c>
       <c r="G148">
@@ -14026,22 +14034,22 @@
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A149" s="2" t="s">
+      <c r="A149" t="s">
         <v>147</v>
       </c>
       <c r="B149">
         <v>30491220449</v>
       </c>
-      <c r="C149" s="2" t="s">
+      <c r="C149" t="s">
         <v>566</v>
       </c>
       <c r="D149">
         <v>149</v>
       </c>
-      <c r="E149" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F149" s="2" t="s">
+      <c r="E149" t="s">
+        <v>567</v>
+      </c>
+      <c r="F149" t="s">
         <v>569</v>
       </c>
       <c r="G149">
@@ -14052,22 +14060,22 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A150" s="2" t="s">
+      <c r="A150" t="s">
         <v>148</v>
       </c>
       <c r="B150">
         <v>30491220472</v>
       </c>
-      <c r="C150" s="2" t="s">
+      <c r="C150" t="s">
         <v>566</v>
       </c>
       <c r="D150">
         <v>150</v>
       </c>
-      <c r="E150" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F150" s="2" t="s">
+      <c r="E150" t="s">
+        <v>567</v>
+      </c>
+      <c r="F150" t="s">
         <v>568</v>
       </c>
       <c r="G150">
@@ -14078,22 +14086,22 @@
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A151" s="2" t="s">
+      <c r="A151" t="s">
         <v>149</v>
       </c>
       <c r="B151">
         <v>3034622101</v>
       </c>
-      <c r="C151" s="2" t="s">
+      <c r="C151" t="s">
         <v>566</v>
       </c>
       <c r="D151">
         <v>151</v>
       </c>
-      <c r="E151" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F151" s="2" t="s">
+      <c r="E151" t="s">
+        <v>567</v>
+      </c>
+      <c r="F151" t="s">
         <v>568</v>
       </c>
       <c r="G151">
@@ -14104,22 +14112,22 @@
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A152" s="2" t="s">
+      <c r="A152" t="s">
         <v>150</v>
       </c>
       <c r="B152">
         <v>30141020350</v>
       </c>
-      <c r="C152" s="2" t="s">
+      <c r="C152" t="s">
         <v>566</v>
       </c>
       <c r="D152">
         <v>152</v>
       </c>
-      <c r="E152" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F152" s="2" t="s">
+      <c r="E152" t="s">
+        <v>567</v>
+      </c>
+      <c r="F152" t="s">
         <v>570</v>
       </c>
       <c r="G152">
@@ -14130,22 +14138,22 @@
       </c>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A153" s="2" t="s">
+      <c r="A153" t="s">
         <v>151</v>
       </c>
       <c r="B153">
         <v>30141121374</v>
       </c>
-      <c r="C153" s="2" t="s">
+      <c r="C153" t="s">
         <v>566</v>
       </c>
       <c r="D153">
         <v>153</v>
       </c>
-      <c r="E153" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F153" s="2" t="s">
+      <c r="E153" t="s">
+        <v>567</v>
+      </c>
+      <c r="F153" t="s">
         <v>570</v>
       </c>
       <c r="G153">
@@ -14156,22 +14164,22 @@
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A154" s="2" t="s">
+      <c r="A154" t="s">
         <v>152</v>
       </c>
       <c r="B154">
         <v>30491321501</v>
       </c>
-      <c r="C154" s="2" t="s">
+      <c r="C154" t="s">
         <v>566</v>
       </c>
       <c r="D154">
         <v>154</v>
       </c>
-      <c r="E154" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F154" s="2" t="s">
+      <c r="E154" t="s">
+        <v>567</v>
+      </c>
+      <c r="F154" t="s">
         <v>569</v>
       </c>
       <c r="G154">
@@ -14182,22 +14190,22 @@
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A155" s="2" t="s">
+      <c r="A155" t="s">
         <v>153</v>
       </c>
       <c r="B155">
         <v>30491221606</v>
       </c>
-      <c r="C155" s="2" t="s">
+      <c r="C155" t="s">
         <v>566</v>
       </c>
       <c r="D155">
         <v>155</v>
       </c>
-      <c r="E155" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F155" s="2" t="s">
+      <c r="E155" t="s">
+        <v>567</v>
+      </c>
+      <c r="F155" t="s">
         <v>569</v>
       </c>
       <c r="G155">
@@ -14208,22 +14216,22 @@
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A156" s="2" t="s">
+      <c r="A156" t="s">
         <v>154</v>
       </c>
       <c r="B156">
         <v>30491221570</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="C156" t="s">
         <v>566</v>
       </c>
       <c r="D156">
         <v>156</v>
       </c>
-      <c r="E156" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F156" s="2" t="s">
+      <c r="E156" t="s">
+        <v>567</v>
+      </c>
+      <c r="F156" t="s">
         <v>569</v>
       </c>
       <c r="G156">
@@ -14234,22 +14242,22 @@
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A157" s="2" t="s">
+      <c r="A157" t="s">
         <v>155</v>
       </c>
       <c r="B157">
         <v>30491221571</v>
       </c>
-      <c r="C157" s="2" t="s">
+      <c r="C157" t="s">
         <v>566</v>
       </c>
       <c r="D157">
         <v>157</v>
       </c>
-      <c r="E157" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F157" s="2" t="s">
+      <c r="E157" t="s">
+        <v>567</v>
+      </c>
+      <c r="F157" t="s">
         <v>570</v>
       </c>
       <c r="G157">
@@ -14260,22 +14268,22 @@
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A158" s="2" t="s">
+      <c r="A158" t="s">
         <v>156</v>
       </c>
       <c r="B158">
         <v>30491220473</v>
       </c>
-      <c r="C158" s="2" t="s">
+      <c r="C158" t="s">
         <v>566</v>
       </c>
       <c r="D158">
         <v>158</v>
       </c>
-      <c r="E158" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F158" s="2" t="s">
+      <c r="E158" t="s">
+        <v>567</v>
+      </c>
+      <c r="F158" t="s">
         <v>569</v>
       </c>
       <c r="G158">
@@ -14286,22 +14294,22 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A159" s="2" t="s">
+      <c r="A159" t="s">
         <v>157</v>
       </c>
       <c r="B159">
         <v>30491221607</v>
       </c>
-      <c r="C159" s="2" t="s">
+      <c r="C159" t="s">
         <v>566</v>
       </c>
       <c r="D159">
         <v>159</v>
       </c>
-      <c r="E159" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F159" s="2" t="s">
+      <c r="E159" t="s">
+        <v>567</v>
+      </c>
+      <c r="F159" t="s">
         <v>569</v>
       </c>
       <c r="G159">
@@ -14312,22 +14320,22 @@
       </c>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A160" s="2" t="s">
+      <c r="A160" t="s">
         <v>158</v>
       </c>
       <c r="B160">
         <v>30141021393</v>
       </c>
-      <c r="C160" s="2" t="s">
+      <c r="C160" t="s">
         <v>566</v>
       </c>
       <c r="D160">
         <v>160</v>
       </c>
-      <c r="E160" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F160" s="2" t="s">
+      <c r="E160" t="s">
+        <v>567</v>
+      </c>
+      <c r="F160" t="s">
         <v>570</v>
       </c>
       <c r="G160">
@@ -14338,22 +14346,22 @@
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A161" s="2" t="s">
+      <c r="A161" t="s">
         <v>159</v>
       </c>
       <c r="B161">
         <v>3034521112</v>
       </c>
-      <c r="C161" s="2" t="s">
+      <c r="C161" t="s">
         <v>566</v>
       </c>
       <c r="D161">
         <v>161</v>
       </c>
-      <c r="E161" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F161" s="2" t="s">
+      <c r="E161" t="s">
+        <v>567</v>
+      </c>
+      <c r="F161" t="s">
         <v>568</v>
       </c>
       <c r="G161">
@@ -14364,22 +14372,22 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A162" s="2" t="s">
+      <c r="A162" t="s">
         <v>160</v>
       </c>
       <c r="B162">
         <v>30491220450</v>
       </c>
-      <c r="C162" s="2" t="s">
+      <c r="C162" t="s">
         <v>566</v>
       </c>
       <c r="D162">
         <v>162</v>
       </c>
-      <c r="E162" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F162" s="2" t="s">
+      <c r="E162" t="s">
+        <v>567</v>
+      </c>
+      <c r="F162" t="s">
         <v>569</v>
       </c>
       <c r="G162">
@@ -14390,22 +14398,22 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A163" s="2" t="s">
+      <c r="A163" t="s">
         <v>161</v>
       </c>
       <c r="B163">
         <v>30141020351</v>
       </c>
-      <c r="C163" s="2" t="s">
+      <c r="C163" t="s">
         <v>566</v>
       </c>
       <c r="D163">
         <v>163</v>
       </c>
-      <c r="E163" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F163" s="2" t="s">
+      <c r="E163" t="s">
+        <v>567</v>
+      </c>
+      <c r="F163" t="s">
         <v>570</v>
       </c>
       <c r="G163">
@@ -14416,22 +14424,22 @@
       </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A164" s="2" t="s">
+      <c r="A164" t="s">
         <v>162</v>
       </c>
       <c r="B164">
         <v>3034521113</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="C164" t="s">
         <v>566</v>
       </c>
       <c r="D164">
         <v>164</v>
       </c>
-      <c r="E164" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F164" s="2" t="s">
+      <c r="E164" t="s">
+        <v>567</v>
+      </c>
+      <c r="F164" t="s">
         <v>568</v>
       </c>
       <c r="G164">
@@ -14442,22 +14450,22 @@
       </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A165" s="2" t="s">
+      <c r="A165" t="s">
         <v>163</v>
       </c>
       <c r="B165">
         <v>30491221572</v>
       </c>
-      <c r="C165" s="2" t="s">
+      <c r="C165" t="s">
         <v>565</v>
       </c>
       <c r="D165">
         <v>165</v>
       </c>
-      <c r="E165" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F165" s="2" t="s">
+      <c r="E165" t="s">
+        <v>567</v>
+      </c>
+      <c r="F165" t="s">
         <v>569</v>
       </c>
       <c r="G165">
@@ -14468,22 +14476,22 @@
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A166" s="2" t="s">
+      <c r="A166" t="s">
         <v>164</v>
       </c>
       <c r="B166">
         <v>30141121375</v>
       </c>
-      <c r="C166" s="2" t="s">
+      <c r="C166" t="s">
         <v>565</v>
       </c>
       <c r="D166">
         <v>166</v>
       </c>
-      <c r="E166" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F166" s="2" t="s">
+      <c r="E166" t="s">
+        <v>567</v>
+      </c>
+      <c r="F166" t="s">
         <v>570</v>
       </c>
       <c r="G166">
@@ -14494,22 +14502,22 @@
       </c>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A167" s="2" t="s">
+      <c r="A167" t="s">
         <v>165</v>
       </c>
       <c r="B167">
         <v>30491321502</v>
       </c>
-      <c r="C167" s="2" t="s">
+      <c r="C167" t="s">
         <v>565</v>
       </c>
       <c r="D167">
         <v>167</v>
       </c>
-      <c r="E167" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F167" s="2" t="s">
+      <c r="E167" t="s">
+        <v>567</v>
+      </c>
+      <c r="F167" t="s">
         <v>569</v>
       </c>
       <c r="G167">
@@ -14520,22 +14528,22 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A168" s="2" t="s">
+      <c r="A168" t="s">
         <v>166</v>
       </c>
       <c r="B168">
         <v>30141020352</v>
       </c>
-      <c r="C168" s="2" t="s">
+      <c r="C168" t="s">
         <v>566</v>
       </c>
       <c r="D168">
         <v>168</v>
       </c>
-      <c r="E168" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F168" s="2" t="s">
+      <c r="E168" t="s">
+        <v>567</v>
+      </c>
+      <c r="F168" t="s">
         <v>570</v>
       </c>
       <c r="G168">
@@ -14546,22 +14554,22 @@
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A169" s="2" t="s">
+      <c r="A169" t="s">
         <v>167</v>
       </c>
       <c r="B169">
         <v>30491220474</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C169" t="s">
         <v>566</v>
       </c>
       <c r="D169">
         <v>169</v>
       </c>
-      <c r="E169" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F169" s="2" t="s">
+      <c r="E169" t="s">
+        <v>567</v>
+      </c>
+      <c r="F169" t="s">
         <v>569</v>
       </c>
       <c r="G169">
@@ -14572,22 +14580,22 @@
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A170" s="2" t="s">
+      <c r="A170" t="s">
         <v>168</v>
       </c>
       <c r="B170">
         <v>30141020354</v>
       </c>
-      <c r="C170" s="2" t="s">
+      <c r="C170" t="s">
         <v>566</v>
       </c>
       <c r="D170">
         <v>170</v>
       </c>
-      <c r="E170" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F170" s="2" t="s">
+      <c r="E170" t="s">
+        <v>567</v>
+      </c>
+      <c r="F170" t="s">
         <v>570</v>
       </c>
       <c r="G170">
@@ -14598,22 +14606,22 @@
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A171" s="2" t="s">
+      <c r="A171" t="s">
         <v>169</v>
       </c>
       <c r="B171">
         <v>30141121376</v>
       </c>
-      <c r="C171" s="2" t="s">
+      <c r="C171" t="s">
         <v>566</v>
       </c>
       <c r="D171">
         <v>171</v>
       </c>
-      <c r="E171" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F171" s="2" t="s">
+      <c r="E171" t="s">
+        <v>567</v>
+      </c>
+      <c r="F171" t="s">
         <v>570</v>
       </c>
       <c r="G171">
@@ -14624,22 +14632,22 @@
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A172" s="2" t="s">
+      <c r="A172" t="s">
         <v>170</v>
       </c>
       <c r="B172">
         <v>30491221608</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="C172" t="s">
         <v>566</v>
       </c>
       <c r="D172">
         <v>172</v>
       </c>
-      <c r="E172" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F172" s="2" t="s">
+      <c r="E172" t="s">
+        <v>567</v>
+      </c>
+      <c r="F172" t="s">
         <v>569</v>
       </c>
       <c r="G172">
@@ -14650,22 +14658,22 @@
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A173" s="2" t="s">
+      <c r="A173" t="s">
         <v>171</v>
       </c>
       <c r="B173">
         <v>3034621092</v>
       </c>
-      <c r="C173" s="2" t="s">
+      <c r="C173" t="s">
         <v>566</v>
       </c>
       <c r="D173">
         <v>173</v>
       </c>
-      <c r="E173" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F173" s="2" t="s">
+      <c r="E173" t="s">
+        <v>567</v>
+      </c>
+      <c r="F173" t="s">
         <v>568</v>
       </c>
       <c r="G173">
@@ -14676,22 +14684,22 @@
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A174" s="2" t="s">
+      <c r="A174" t="s">
         <v>172</v>
       </c>
       <c r="B174">
         <v>30141021412</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C174" t="s">
         <v>566</v>
       </c>
       <c r="D174">
         <v>174</v>
       </c>
-      <c r="E174" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F174" s="2" t="s">
+      <c r="E174" t="s">
+        <v>567</v>
+      </c>
+      <c r="F174" t="s">
         <v>570</v>
       </c>
       <c r="G174">
@@ -14702,22 +14710,22 @@
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" s="2" t="s">
+      <c r="A175" t="s">
         <v>173</v>
       </c>
       <c r="B175">
         <v>30141021394</v>
       </c>
-      <c r="C175" s="2" t="s">
+      <c r="C175" t="s">
         <v>566</v>
       </c>
       <c r="D175">
         <v>175</v>
       </c>
-      <c r="E175" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F175" s="2" t="s">
+      <c r="E175" t="s">
+        <v>567</v>
+      </c>
+      <c r="F175" t="s">
         <v>570</v>
       </c>
       <c r="G175">
@@ -14728,22 +14736,22 @@
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A176" s="2" t="s">
+      <c r="A176" t="s">
         <v>174</v>
       </c>
       <c r="B176">
         <v>30491321503</v>
       </c>
-      <c r="C176" s="2" t="s">
+      <c r="C176" t="s">
         <v>566</v>
       </c>
       <c r="D176">
         <v>176</v>
       </c>
-      <c r="E176" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F176" s="2" t="s">
+      <c r="E176" t="s">
+        <v>567</v>
+      </c>
+      <c r="F176" t="s">
         <v>569</v>
       </c>
       <c r="G176">
@@ -14754,22 +14762,22 @@
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A177" s="2" t="s">
+      <c r="A177" t="s">
         <v>175</v>
       </c>
       <c r="B177">
         <v>30141021413</v>
       </c>
-      <c r="C177" s="2" t="s">
+      <c r="C177" t="s">
         <v>566</v>
       </c>
       <c r="D177">
         <v>177</v>
       </c>
-      <c r="E177" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F177" s="2" t="s">
+      <c r="E177" t="s">
+        <v>567</v>
+      </c>
+      <c r="F177" t="s">
         <v>570</v>
       </c>
       <c r="G177">
@@ -14780,22 +14788,22 @@
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A178" s="2" t="s">
+      <c r="A178" t="s">
         <v>176</v>
       </c>
       <c r="B178">
         <v>30141021395</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="C178" t="s">
         <v>566</v>
       </c>
       <c r="D178">
         <v>178</v>
       </c>
-      <c r="E178" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F178" s="2" t="s">
+      <c r="E178" t="s">
+        <v>567</v>
+      </c>
+      <c r="F178" t="s">
         <v>570</v>
       </c>
       <c r="G178">
@@ -14806,22 +14814,22 @@
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A179" s="2" t="s">
+      <c r="A179" t="s">
         <v>177</v>
       </c>
       <c r="B179">
         <v>30141020355</v>
       </c>
-      <c r="C179" s="2" t="s">
+      <c r="C179" t="s">
         <v>566</v>
       </c>
       <c r="D179">
         <v>179</v>
       </c>
-      <c r="E179" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F179" s="2" t="s">
+      <c r="E179" t="s">
+        <v>567</v>
+      </c>
+      <c r="F179" t="s">
         <v>570</v>
       </c>
       <c r="G179">
@@ -14832,22 +14840,22 @@
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A180" s="2" t="s">
+      <c r="A180" t="s">
         <v>178</v>
       </c>
       <c r="B180">
         <v>30491221572</v>
       </c>
-      <c r="C180" s="2" t="s">
+      <c r="C180" t="s">
         <v>566</v>
       </c>
       <c r="D180">
         <v>180</v>
       </c>
-      <c r="E180" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F180" s="2" t="s">
+      <c r="E180" t="s">
+        <v>567</v>
+      </c>
+      <c r="F180" t="s">
         <v>569</v>
       </c>
       <c r="G180">
@@ -14858,22 +14866,22 @@
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A181" s="2" t="s">
+      <c r="A181" t="s">
         <v>179</v>
       </c>
       <c r="B181">
         <v>30491221573</v>
       </c>
-      <c r="C181" s="2" t="s">
+      <c r="C181" t="s">
         <v>566</v>
       </c>
       <c r="D181">
         <v>181</v>
       </c>
-      <c r="E181" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F181" s="2" t="s">
+      <c r="E181" t="s">
+        <v>567</v>
+      </c>
+      <c r="F181" t="s">
         <v>569</v>
       </c>
       <c r="G181">
@@ -14884,22 +14892,22 @@
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A182" s="2" t="s">
+      <c r="A182" t="s">
         <v>180</v>
       </c>
       <c r="B182">
         <v>30491221609</v>
       </c>
-      <c r="C182" s="2" t="s">
+      <c r="C182" t="s">
         <v>566</v>
       </c>
       <c r="D182">
         <v>182</v>
       </c>
-      <c r="E182" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F182" s="2" t="s">
+      <c r="E182" t="s">
+        <v>567</v>
+      </c>
+      <c r="F182" t="s">
         <v>569</v>
       </c>
       <c r="G182">
@@ -14910,22 +14918,22 @@
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A183" s="2" t="s">
+      <c r="A183" t="s">
         <v>181</v>
       </c>
       <c r="B183">
         <v>3034621093</v>
       </c>
-      <c r="C183" s="2" t="s">
+      <c r="C183" t="s">
         <v>566</v>
       </c>
       <c r="D183">
         <v>183</v>
       </c>
-      <c r="E183" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F183" s="2" t="s">
+      <c r="E183" t="s">
+        <v>567</v>
+      </c>
+      <c r="F183" t="s">
         <v>568</v>
       </c>
       <c r="G183">
@@ -14936,22 +14944,22 @@
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A184" s="2" t="s">
+      <c r="A184" t="s">
         <v>182</v>
       </c>
       <c r="B184">
         <v>30491221574</v>
       </c>
-      <c r="C184" s="2" t="s">
+      <c r="C184" t="s">
         <v>566</v>
       </c>
       <c r="D184">
         <v>184</v>
       </c>
-      <c r="E184" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F184" s="2" t="s">
+      <c r="E184" t="s">
+        <v>567</v>
+      </c>
+      <c r="F184" t="s">
         <v>569</v>
       </c>
       <c r="G184">
@@ -14962,22 +14970,22 @@
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="2" t="s">
+      <c r="A185" t="s">
         <v>183</v>
       </c>
       <c r="B185">
         <v>3034621094</v>
       </c>
-      <c r="C185" s="2" t="s">
+      <c r="C185" t="s">
         <v>566</v>
       </c>
       <c r="D185">
         <v>185</v>
       </c>
-      <c r="E185" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F185" s="2" t="s">
+      <c r="E185" t="s">
+        <v>567</v>
+      </c>
+      <c r="F185" t="s">
         <v>568</v>
       </c>
       <c r="G185">
@@ -14988,22 +14996,22 @@
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A186" s="2" t="s">
+      <c r="A186" t="s">
         <v>184</v>
       </c>
       <c r="B186">
         <v>3034520074</v>
       </c>
-      <c r="C186" s="2" t="s">
+      <c r="C186" t="s">
         <v>566</v>
       </c>
       <c r="D186">
         <v>186</v>
       </c>
-      <c r="E186" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F186" s="2" t="s">
+      <c r="E186" t="s">
+        <v>567</v>
+      </c>
+      <c r="F186" t="s">
         <v>568</v>
       </c>
       <c r="G186">
@@ -15014,22 +15022,22 @@
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A187" s="2" t="s">
+      <c r="A187" t="s">
         <v>185</v>
       </c>
       <c r="B187">
         <v>30141021396</v>
       </c>
-      <c r="C187" s="2" t="s">
+      <c r="C187" t="s">
         <v>566</v>
       </c>
       <c r="D187">
         <v>187</v>
       </c>
-      <c r="E187" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F187" s="2" t="s">
+      <c r="E187" t="s">
+        <v>567</v>
+      </c>
+      <c r="F187" t="s">
         <v>570</v>
       </c>
       <c r="G187">
@@ -15040,22 +15048,22 @@
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A188" s="2" t="s">
+      <c r="A188" t="s">
         <v>186</v>
       </c>
       <c r="B188">
         <v>30491221610</v>
       </c>
-      <c r="C188" s="2" t="s">
+      <c r="C188" t="s">
         <v>566</v>
       </c>
       <c r="D188">
         <v>188</v>
       </c>
-      <c r="E188" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F188" s="2" t="s">
+      <c r="E188" t="s">
+        <v>567</v>
+      </c>
+      <c r="F188" t="s">
         <v>569</v>
       </c>
       <c r="G188">
@@ -15066,22 +15074,22 @@
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A189" s="2" t="s">
+      <c r="A189" t="s">
         <v>187</v>
       </c>
       <c r="B189">
         <v>30491221575</v>
       </c>
-      <c r="C189" s="2" t="s">
+      <c r="C189" t="s">
         <v>566</v>
       </c>
       <c r="D189">
         <v>189</v>
       </c>
-      <c r="E189" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F189" s="2" t="s">
+      <c r="E189" t="s">
+        <v>567</v>
+      </c>
+      <c r="F189" t="s">
         <v>569</v>
       </c>
       <c r="G189">
@@ -15092,22 +15100,22 @@
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A190" s="2" t="s">
+      <c r="A190" t="s">
         <v>188</v>
       </c>
       <c r="B190">
         <v>3034521114</v>
       </c>
-      <c r="C190" s="2" t="s">
+      <c r="C190" t="s">
         <v>566</v>
       </c>
       <c r="D190">
         <v>190</v>
       </c>
-      <c r="E190" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F190" s="2" t="s">
+      <c r="E190" t="s">
+        <v>567</v>
+      </c>
+      <c r="F190" t="s">
         <v>568</v>
       </c>
       <c r="G190">
@@ -15118,22 +15126,22 @@
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A191" s="2" t="s">
+      <c r="A191" t="s">
         <v>189</v>
       </c>
       <c r="B191">
         <v>30141020356</v>
       </c>
-      <c r="C191" s="2" t="s">
+      <c r="C191" t="s">
         <v>566</v>
       </c>
       <c r="D191">
         <v>191</v>
       </c>
-      <c r="E191" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F191" s="2" t="s">
+      <c r="E191" t="s">
+        <v>567</v>
+      </c>
+      <c r="F191" t="s">
         <v>570</v>
       </c>
       <c r="G191">
@@ -15144,22 +15152,22 @@
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A192" s="2" t="s">
+      <c r="A192" t="s">
         <v>190</v>
       </c>
       <c r="B192">
         <v>3034621095</v>
       </c>
-      <c r="C192" s="2" t="s">
+      <c r="C192" t="s">
         <v>566</v>
       </c>
       <c r="D192">
         <v>192</v>
       </c>
-      <c r="E192" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F192" s="2" t="s">
+      <c r="E192" t="s">
+        <v>567</v>
+      </c>
+      <c r="F192" t="s">
         <v>568</v>
       </c>
       <c r="G192">
@@ -15170,22 +15178,22 @@
       </c>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" s="2" t="s">
+      <c r="A193" t="s">
         <v>191</v>
       </c>
       <c r="B193">
         <v>30491321504</v>
       </c>
-      <c r="C193" s="2" t="s">
+      <c r="C193" t="s">
         <v>566</v>
       </c>
       <c r="D193">
         <v>193</v>
       </c>
-      <c r="E193" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F193" s="2" t="s">
+      <c r="E193" t="s">
+        <v>567</v>
+      </c>
+      <c r="F193" t="s">
         <v>569</v>
       </c>
       <c r="G193">
@@ -15196,22 +15204,22 @@
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A194" s="2" t="s">
+      <c r="A194" t="s">
         <v>192</v>
       </c>
       <c r="B194">
         <v>30491220451</v>
       </c>
-      <c r="C194" s="2" t="s">
+      <c r="C194" t="s">
         <v>566</v>
       </c>
       <c r="D194">
         <v>194</v>
       </c>
-      <c r="E194" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F194" s="2" t="s">
+      <c r="E194" t="s">
+        <v>567</v>
+      </c>
+      <c r="F194" t="s">
         <v>569</v>
       </c>
       <c r="G194">
@@ -15222,22 +15230,22 @@
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A195" s="2" t="s">
+      <c r="A195" t="s">
         <v>193</v>
       </c>
       <c r="B195">
         <v>30491221611</v>
       </c>
-      <c r="C195" s="2" t="s">
+      <c r="C195" t="s">
         <v>566</v>
       </c>
       <c r="D195">
         <v>195</v>
       </c>
-      <c r="E195" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F195" s="2" t="s">
+      <c r="E195" t="s">
+        <v>567</v>
+      </c>
+      <c r="F195" t="s">
         <v>569</v>
       </c>
       <c r="G195">
@@ -15248,22 +15256,22 @@
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A196" s="2" t="s">
+      <c r="A196" t="s">
         <v>194</v>
       </c>
       <c r="B196">
         <v>30141021415</v>
       </c>
-      <c r="C196" s="2" t="s">
+      <c r="C196" t="s">
         <v>566</v>
       </c>
       <c r="D196">
         <v>196</v>
       </c>
-      <c r="E196" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F196" s="2" t="s">
+      <c r="E196" t="s">
+        <v>567</v>
+      </c>
+      <c r="F196" t="s">
         <v>570</v>
       </c>
       <c r="G196">
@@ -15274,22 +15282,22 @@
       </c>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="2" t="s">
+      <c r="A197" t="s">
         <v>195</v>
       </c>
       <c r="B197">
         <v>30491321505</v>
       </c>
-      <c r="C197" s="2" t="s">
+      <c r="C197" t="s">
         <v>566</v>
       </c>
       <c r="D197">
         <v>197</v>
       </c>
-      <c r="E197" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F197" s="2" t="s">
+      <c r="E197" t="s">
+        <v>567</v>
+      </c>
+      <c r="F197" t="s">
         <v>569</v>
       </c>
       <c r="G197">
@@ -15300,22 +15308,22 @@
       </c>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="2" t="s">
+      <c r="A198" t="s">
         <v>196</v>
       </c>
       <c r="B198">
         <v>30491321506</v>
       </c>
-      <c r="C198" s="2" t="s">
+      <c r="C198" t="s">
         <v>566</v>
       </c>
       <c r="D198">
         <v>198</v>
       </c>
-      <c r="E198" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F198" s="2" t="s">
+      <c r="E198" t="s">
+        <v>567</v>
+      </c>
+      <c r="F198" t="s">
         <v>569</v>
       </c>
       <c r="G198">
@@ -15326,22 +15334,22 @@
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="2" t="s">
+      <c r="A199" t="s">
         <v>197</v>
       </c>
       <c r="B199">
         <v>30141021424</v>
       </c>
-      <c r="C199" s="2" t="s">
+      <c r="C199" t="s">
         <v>566</v>
       </c>
       <c r="D199">
         <v>199</v>
       </c>
-      <c r="E199" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F199" s="2" t="s">
+      <c r="E199" t="s">
+        <v>567</v>
+      </c>
+      <c r="F199" t="s">
         <v>570</v>
       </c>
       <c r="G199">
@@ -15352,22 +15360,22 @@
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="2" t="s">
+      <c r="A200" t="s">
         <v>198</v>
       </c>
       <c r="B200">
         <v>30141021425</v>
       </c>
-      <c r="C200" s="2" t="s">
+      <c r="C200" t="s">
         <v>566</v>
       </c>
       <c r="D200">
         <v>200</v>
       </c>
-      <c r="E200" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F200" s="2" t="s">
+      <c r="E200" t="s">
+        <v>567</v>
+      </c>
+      <c r="F200" t="s">
         <v>570</v>
       </c>
       <c r="G200">
@@ -15378,22 +15386,22 @@
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="2" t="s">
+      <c r="A201" t="s">
         <v>199</v>
       </c>
       <c r="B201">
         <v>30141021397</v>
       </c>
-      <c r="C201" s="2" t="s">
+      <c r="C201" t="s">
         <v>566</v>
       </c>
       <c r="D201">
         <v>201</v>
       </c>
-      <c r="E201" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F201" s="2" t="s">
+      <c r="E201" t="s">
+        <v>567</v>
+      </c>
+      <c r="F201" t="s">
         <v>570</v>
       </c>
       <c r="G201">
@@ -15404,22 +15412,22 @@
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A202" s="2" t="s">
+      <c r="A202" t="s">
         <v>200</v>
       </c>
       <c r="B202">
         <v>3034621097</v>
       </c>
-      <c r="C202" s="2" t="s">
+      <c r="C202" t="s">
         <v>566</v>
       </c>
       <c r="D202">
         <v>202</v>
       </c>
-      <c r="E202" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F202" s="2" t="s">
+      <c r="E202" t="s">
+        <v>567</v>
+      </c>
+      <c r="F202" t="s">
         <v>568</v>
       </c>
       <c r="G202">
@@ -15430,22 +15438,22 @@
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A203" s="2" t="s">
+      <c r="A203" t="s">
         <v>201</v>
       </c>
       <c r="B203">
         <v>3034621085</v>
       </c>
-      <c r="C203" s="2" t="s">
+      <c r="C203" t="s">
         <v>566</v>
       </c>
       <c r="D203">
         <v>203</v>
       </c>
-      <c r="E203" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F203" s="2" t="s">
+      <c r="E203" t="s">
+        <v>567</v>
+      </c>
+      <c r="F203" t="s">
         <v>568</v>
       </c>
       <c r="G203">
@@ -15456,22 +15464,22 @@
       </c>
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A204" s="2" t="s">
+      <c r="A204" t="s">
         <v>202</v>
       </c>
       <c r="B204">
         <v>30141021416</v>
       </c>
-      <c r="C204" s="2" t="s">
+      <c r="C204" t="s">
         <v>565</v>
       </c>
       <c r="D204">
         <v>204</v>
       </c>
-      <c r="E204" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F204" s="2" t="s">
+      <c r="E204" t="s">
+        <v>567</v>
+      </c>
+      <c r="F204" t="s">
         <v>570</v>
       </c>
       <c r="G204">
@@ -15482,22 +15490,22 @@
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A205" s="2" t="s">
+      <c r="A205" t="s">
         <v>203</v>
       </c>
       <c r="B205">
         <v>30491221576</v>
       </c>
-      <c r="C205" s="2" t="s">
+      <c r="C205" t="s">
         <v>566</v>
       </c>
       <c r="D205">
         <v>205</v>
       </c>
-      <c r="E205" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F205" s="2" t="s">
+      <c r="E205" t="s">
+        <v>567</v>
+      </c>
+      <c r="F205" t="s">
         <v>569</v>
       </c>
       <c r="G205">
@@ -15508,22 +15516,22 @@
       </c>
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A206" s="2" t="s">
+      <c r="A206" t="s">
         <v>204</v>
       </c>
       <c r="B206">
         <v>30491220475</v>
       </c>
-      <c r="C206" s="2" t="s">
+      <c r="C206" t="s">
         <v>566</v>
       </c>
       <c r="D206">
         <v>206</v>
       </c>
-      <c r="E206" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F206" s="2" t="s">
+      <c r="E206" t="s">
+        <v>567</v>
+      </c>
+      <c r="F206" t="s">
         <v>569</v>
       </c>
       <c r="G206">
@@ -15534,22 +15542,22 @@
       </c>
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A207" s="2" t="s">
+      <c r="A207" t="s">
         <v>205</v>
       </c>
       <c r="B207">
         <v>30491221612</v>
       </c>
-      <c r="C207" s="2" t="s">
+      <c r="C207" t="s">
         <v>566</v>
       </c>
       <c r="D207">
         <v>207</v>
       </c>
-      <c r="E207" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F207" s="2" t="s">
+      <c r="E207" t="s">
+        <v>567</v>
+      </c>
+      <c r="F207" t="s">
         <v>569</v>
       </c>
       <c r="G207">
@@ -15560,22 +15568,22 @@
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A208" s="2" t="s">
+      <c r="A208" t="s">
         <v>206</v>
       </c>
       <c r="B208">
         <v>30141021398</v>
       </c>
-      <c r="C208" s="2" t="s">
+      <c r="C208" t="s">
         <v>566</v>
       </c>
       <c r="D208">
         <v>208</v>
       </c>
-      <c r="E208" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F208" s="2" t="s">
+      <c r="E208" t="s">
+        <v>567</v>
+      </c>
+      <c r="F208" t="s">
         <v>570</v>
       </c>
       <c r="G208">
@@ -15586,22 +15594,22 @@
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A209" s="2" t="s">
+      <c r="A209" t="s">
         <v>207</v>
       </c>
       <c r="B209">
         <v>30141021417</v>
       </c>
-      <c r="C209" s="2" t="s">
+      <c r="C209" t="s">
         <v>566</v>
       </c>
       <c r="D209">
         <v>209</v>
       </c>
-      <c r="E209" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F209" s="2" t="s">
+      <c r="E209" t="s">
+        <v>567</v>
+      </c>
+      <c r="F209" t="s">
         <v>570</v>
       </c>
       <c r="G209">
@@ -15612,22 +15620,22 @@
       </c>
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A210" s="2" t="s">
+      <c r="A210" t="s">
         <v>208</v>
       </c>
       <c r="B210">
         <v>30491221577</v>
       </c>
-      <c r="C210" s="2" t="s">
+      <c r="C210" t="s">
         <v>566</v>
       </c>
       <c r="D210">
         <v>210</v>
       </c>
-      <c r="E210" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F210" s="2" t="s">
+      <c r="E210" t="s">
+        <v>567</v>
+      </c>
+      <c r="F210" t="s">
         <v>569</v>
       </c>
       <c r="G210">
@@ -15638,22 +15646,22 @@
       </c>
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A211" s="2" t="s">
+      <c r="A211" t="s">
         <v>209</v>
       </c>
       <c r="B211">
         <v>30491321507</v>
       </c>
-      <c r="C211" s="2" t="s">
+      <c r="C211" t="s">
         <v>566</v>
       </c>
       <c r="D211">
         <v>211</v>
       </c>
-      <c r="E211" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F211" s="2" t="s">
+      <c r="E211" t="s">
+        <v>567</v>
+      </c>
+      <c r="F211" t="s">
         <v>569</v>
       </c>
       <c r="G211">
@@ -15664,22 +15672,22 @@
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A212" s="2" t="s">
+      <c r="A212" t="s">
         <v>210</v>
       </c>
       <c r="B212">
         <v>30491221613</v>
       </c>
-      <c r="C212" s="2" t="s">
+      <c r="C212" t="s">
         <v>566</v>
       </c>
       <c r="D212">
         <v>212</v>
       </c>
-      <c r="E212" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F212" s="2" t="s">
+      <c r="E212" t="s">
+        <v>567</v>
+      </c>
+      <c r="F212" t="s">
         <v>569</v>
       </c>
       <c r="G212">
@@ -15690,22 +15698,22 @@
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A213" s="2" t="s">
+      <c r="A213" t="s">
         <v>211</v>
       </c>
       <c r="B213">
         <v>30491221578</v>
       </c>
-      <c r="C213" s="2" t="s">
+      <c r="C213" t="s">
         <v>565</v>
       </c>
       <c r="D213">
         <v>213</v>
       </c>
-      <c r="E213" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F213" s="2" t="s">
+      <c r="E213" t="s">
+        <v>567</v>
+      </c>
+      <c r="F213" t="s">
         <v>569</v>
       </c>
       <c r="G213">
@@ -15716,22 +15724,22 @@
       </c>
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A214" s="2" t="s">
+      <c r="A214" t="s">
         <v>212</v>
       </c>
       <c r="B214">
         <v>30491221614</v>
       </c>
-      <c r="C214" s="2" t="s">
+      <c r="C214" t="s">
         <v>566</v>
       </c>
       <c r="D214">
         <v>214</v>
       </c>
-      <c r="E214" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F214" s="2" t="s">
+      <c r="E214" t="s">
+        <v>567</v>
+      </c>
+      <c r="F214" t="s">
         <v>569</v>
       </c>
       <c r="G214">
@@ -15742,22 +15750,22 @@
       </c>
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A215" s="2" t="s">
+      <c r="A215" t="s">
         <v>213</v>
       </c>
       <c r="B215">
         <v>30141121377</v>
       </c>
-      <c r="C215" s="2" t="s">
+      <c r="C215" t="s">
         <v>566</v>
       </c>
       <c r="D215">
         <v>215</v>
       </c>
-      <c r="E215" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F215" s="2" t="s">
+      <c r="E215" t="s">
+        <v>567</v>
+      </c>
+      <c r="F215" t="s">
         <v>570</v>
       </c>
       <c r="G215">
@@ -15768,22 +15776,22 @@
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A216" s="2" t="s">
+      <c r="A216" t="s">
         <v>214</v>
       </c>
       <c r="B216">
         <v>30491220452</v>
       </c>
-      <c r="C216" s="2" t="s">
+      <c r="C216" t="s">
         <v>566</v>
       </c>
       <c r="D216">
         <v>216</v>
       </c>
-      <c r="E216" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F216" s="2" t="s">
+      <c r="E216" t="s">
+        <v>567</v>
+      </c>
+      <c r="F216" t="s">
         <v>569</v>
       </c>
       <c r="G216">
@@ -15794,22 +15802,22 @@
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A217" s="2" t="s">
+      <c r="A217" t="s">
         <v>215</v>
       </c>
       <c r="B217">
         <v>30491221579</v>
       </c>
-      <c r="C217" s="2" t="s">
+      <c r="C217" t="s">
         <v>566</v>
       </c>
       <c r="D217">
         <v>217</v>
       </c>
-      <c r="E217" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F217" s="2" t="s">
+      <c r="E217" t="s">
+        <v>567</v>
+      </c>
+      <c r="F217" t="s">
         <v>569</v>
       </c>
       <c r="G217">
@@ -15820,22 +15828,22 @@
       </c>
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A218" s="2" t="s">
+      <c r="A218" t="s">
         <v>216</v>
       </c>
       <c r="B218">
         <v>30141021399</v>
       </c>
-      <c r="C218" s="2" t="s">
+      <c r="C218" t="s">
         <v>566</v>
       </c>
       <c r="D218">
         <v>218</v>
       </c>
-      <c r="E218" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F218" s="2" t="s">
+      <c r="E218" t="s">
+        <v>567</v>
+      </c>
+      <c r="F218" t="s">
         <v>570</v>
       </c>
       <c r="G218">
@@ -15846,22 +15854,22 @@
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A219" s="2" t="s">
+      <c r="A219" t="s">
         <v>217</v>
       </c>
       <c r="B219">
         <v>30491221615</v>
       </c>
-      <c r="C219" s="2" t="s">
+      <c r="C219" t="s">
         <v>566</v>
       </c>
       <c r="D219">
         <v>219</v>
       </c>
-      <c r="E219" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F219" s="2" t="s">
+      <c r="E219" t="s">
+        <v>567</v>
+      </c>
+      <c r="F219" t="s">
         <v>569</v>
       </c>
       <c r="G219">
@@ -15872,22 +15880,22 @@
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A220" s="2" t="s">
+      <c r="A220" t="s">
         <v>218</v>
       </c>
       <c r="B220">
         <v>30491321508</v>
       </c>
-      <c r="C220" s="2" t="s">
+      <c r="C220" t="s">
         <v>566</v>
       </c>
       <c r="D220">
         <v>220</v>
       </c>
-      <c r="E220" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F220" s="2" t="s">
+      <c r="E220" t="s">
+        <v>567</v>
+      </c>
+      <c r="F220" t="s">
         <v>569</v>
       </c>
       <c r="G220">
@@ -15898,22 +15906,22 @@
       </c>
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A221" s="2" t="s">
+      <c r="A221" t="s">
         <v>219</v>
       </c>
       <c r="B221">
         <v>30491321509</v>
       </c>
-      <c r="C221" s="2" t="s">
+      <c r="C221" t="s">
         <v>566</v>
       </c>
       <c r="D221">
         <v>221</v>
       </c>
-      <c r="E221" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F221" s="2" t="s">
+      <c r="E221" t="s">
+        <v>567</v>
+      </c>
+      <c r="F221" t="s">
         <v>569</v>
       </c>
       <c r="G221">
@@ -15924,22 +15932,22 @@
       </c>
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A222" s="2" t="s">
+      <c r="A222" t="s">
         <v>220</v>
       </c>
       <c r="B222">
         <v>30491220453</v>
       </c>
-      <c r="C222" s="2" t="s">
+      <c r="C222" t="s">
         <v>566</v>
       </c>
       <c r="D222">
         <v>222</v>
       </c>
-      <c r="E222" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F222" s="2" t="s">
+      <c r="E222" t="s">
+        <v>567</v>
+      </c>
+      <c r="F222" t="s">
         <v>569</v>
       </c>
       <c r="G222">
@@ -15950,22 +15958,22 @@
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A223" s="2" t="s">
+      <c r="A223" t="s">
         <v>221</v>
       </c>
       <c r="B223">
         <v>30491220476</v>
       </c>
-      <c r="C223" s="2" t="s">
+      <c r="C223" t="s">
         <v>566</v>
       </c>
       <c r="D223">
         <v>223</v>
       </c>
-      <c r="E223" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F223" s="2" t="s">
+      <c r="E223" t="s">
+        <v>567</v>
+      </c>
+      <c r="F223" t="s">
         <v>569</v>
       </c>
       <c r="G223">
@@ -15976,22 +15984,22 @@
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A224" s="2" t="s">
+      <c r="A224" t="s">
         <v>222</v>
       </c>
       <c r="B224">
         <v>30491220454</v>
       </c>
-      <c r="C224" s="2" t="s">
+      <c r="C224" t="s">
         <v>565</v>
       </c>
       <c r="D224">
         <v>224</v>
       </c>
-      <c r="E224" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F224" s="2" t="s">
+      <c r="E224" t="s">
+        <v>567</v>
+      </c>
+      <c r="F224" t="s">
         <v>569</v>
       </c>
       <c r="G224">
@@ -16002,22 +16010,22 @@
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A225" s="2" t="s">
+      <c r="A225" t="s">
         <v>223</v>
       </c>
       <c r="B225">
         <v>30491221616</v>
       </c>
-      <c r="C225" s="2" t="s">
+      <c r="C225" t="s">
         <v>565</v>
       </c>
       <c r="D225">
         <v>225</v>
       </c>
-      <c r="E225" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F225" s="2" t="s">
+      <c r="E225" t="s">
+        <v>567</v>
+      </c>
+      <c r="F225" t="s">
         <v>569</v>
       </c>
       <c r="G225">
@@ -16028,22 +16036,22 @@
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A226" s="2" t="s">
+      <c r="A226" t="s">
         <v>224</v>
       </c>
       <c r="B226">
         <v>30141121378</v>
       </c>
-      <c r="C226" s="2" t="s">
+      <c r="C226" t="s">
         <v>566</v>
       </c>
       <c r="D226">
         <v>226</v>
       </c>
-      <c r="E226" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F226" s="2" t="s">
+      <c r="E226" t="s">
+        <v>567</v>
+      </c>
+      <c r="F226" t="s">
         <v>570</v>
       </c>
       <c r="G226">
@@ -16054,22 +16062,22 @@
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A227" s="2" t="s">
+      <c r="A227" t="s">
         <v>225</v>
       </c>
       <c r="B227">
         <v>30141020357</v>
       </c>
-      <c r="C227" s="2" t="s">
+      <c r="C227" t="s">
         <v>566</v>
       </c>
       <c r="D227">
         <v>227</v>
       </c>
-      <c r="E227" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F227" s="2" t="s">
+      <c r="E227" t="s">
+        <v>567</v>
+      </c>
+      <c r="F227" t="s">
         <v>570</v>
       </c>
       <c r="G227">
@@ -16080,22 +16088,22 @@
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A228" s="2" t="s">
+      <c r="A228" t="s">
         <v>226</v>
       </c>
       <c r="B228">
         <v>3034521115</v>
       </c>
-      <c r="C228" s="2" t="s">
+      <c r="C228" t="s">
         <v>566</v>
       </c>
       <c r="D228">
         <v>228</v>
       </c>
-      <c r="E228" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F228" s="2" t="s">
+      <c r="E228" t="s">
+        <v>567</v>
+      </c>
+      <c r="F228" t="s">
         <v>568</v>
       </c>
       <c r="G228">
@@ -16106,22 +16114,22 @@
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A229" s="2" t="s">
+      <c r="A229" t="s">
         <v>227</v>
       </c>
       <c r="B229">
         <v>30491221580</v>
       </c>
-      <c r="C229" s="2" t="s">
+      <c r="C229" t="s">
         <v>566</v>
       </c>
       <c r="D229">
         <v>229</v>
       </c>
-      <c r="E229" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F229" s="2" t="s">
+      <c r="E229" t="s">
+        <v>567</v>
+      </c>
+      <c r="F229" t="s">
         <v>569</v>
       </c>
       <c r="G229">
@@ -16132,22 +16140,22 @@
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A230" s="2" t="s">
+      <c r="A230" t="s">
         <v>228</v>
       </c>
       <c r="B230">
         <v>30141021418</v>
       </c>
-      <c r="C230" s="2" t="s">
+      <c r="C230" t="s">
         <v>566</v>
       </c>
       <c r="D230">
         <v>230</v>
       </c>
-      <c r="E230" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F230" s="2" t="s">
+      <c r="E230" t="s">
+        <v>567</v>
+      </c>
+      <c r="F230" t="s">
         <v>570</v>
       </c>
       <c r="G230">
@@ -16158,22 +16166,22 @@
       </c>
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A231" s="2" t="s">
+      <c r="A231" t="s">
         <v>229</v>
       </c>
       <c r="B231">
         <v>30141021423</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="C231" t="s">
         <v>565</v>
       </c>
       <c r="D231">
         <v>231</v>
       </c>
-      <c r="E231" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F231" s="2" t="s">
+      <c r="E231" t="s">
+        <v>567</v>
+      </c>
+      <c r="F231" t="s">
         <v>570</v>
       </c>
       <c r="G231">
@@ -16184,22 +16192,22 @@
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A232" s="2" t="s">
+      <c r="A232" t="s">
         <v>230</v>
       </c>
       <c r="B232">
         <v>30141121379</v>
       </c>
-      <c r="C232" s="2" t="s">
+      <c r="C232" t="s">
         <v>566</v>
       </c>
       <c r="D232">
         <v>232</v>
       </c>
-      <c r="E232" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F232" s="2" t="s">
+      <c r="E232" t="s">
+        <v>567</v>
+      </c>
+      <c r="F232" t="s">
         <v>570</v>
       </c>
       <c r="G232">
@@ -16210,22 +16218,22 @@
       </c>
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A233" s="2" t="s">
+      <c r="A233" t="s">
         <v>231</v>
       </c>
       <c r="B233">
         <v>30141021400</v>
       </c>
-      <c r="C233" s="2" t="s">
+      <c r="C233" t="s">
         <v>566</v>
       </c>
       <c r="D233">
         <v>233</v>
       </c>
-      <c r="E233" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F233" s="2" t="s">
+      <c r="E233" t="s">
+        <v>567</v>
+      </c>
+      <c r="F233" t="s">
         <v>570</v>
       </c>
       <c r="G233">
@@ -16236,22 +16244,22 @@
       </c>
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A234" s="2" t="s">
+      <c r="A234" t="s">
         <v>232</v>
       </c>
       <c r="B234">
         <v>30491221617</v>
       </c>
-      <c r="C234" s="2" t="s">
+      <c r="C234" t="s">
         <v>566</v>
       </c>
       <c r="D234">
         <v>234</v>
       </c>
-      <c r="E234" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F234" s="2" t="s">
+      <c r="E234" t="s">
+        <v>567</v>
+      </c>
+      <c r="F234" t="s">
         <v>569</v>
       </c>
       <c r="G234">
@@ -16262,22 +16270,22 @@
       </c>
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A235" s="2" t="s">
+      <c r="A235" t="s">
         <v>233</v>
       </c>
       <c r="B235">
         <v>30491221581</v>
       </c>
-      <c r="C235" s="2" t="s">
+      <c r="C235" t="s">
         <v>566</v>
       </c>
       <c r="D235">
         <v>235</v>
       </c>
-      <c r="E235" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F235" s="2" t="s">
+      <c r="E235" t="s">
+        <v>567</v>
+      </c>
+      <c r="F235" t="s">
         <v>569</v>
       </c>
       <c r="G235">
@@ -16288,22 +16296,22 @@
       </c>
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A236" s="2" t="s">
+      <c r="A236" t="s">
         <v>234</v>
       </c>
       <c r="B236">
         <v>30491321510</v>
       </c>
-      <c r="C236" s="2" t="s">
+      <c r="C236" t="s">
         <v>566</v>
       </c>
       <c r="D236">
         <v>236</v>
       </c>
-      <c r="E236" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F236" s="2" t="s">
+      <c r="E236" t="s">
+        <v>567</v>
+      </c>
+      <c r="F236" t="s">
         <v>569</v>
       </c>
       <c r="G236">
@@ -16314,22 +16322,22 @@
       </c>
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A237" s="2" t="s">
+      <c r="A237" t="s">
         <v>235</v>
       </c>
       <c r="B237">
         <v>30141121380</v>
       </c>
-      <c r="C237" s="2" t="s">
+      <c r="C237" t="s">
         <v>566</v>
       </c>
       <c r="D237">
         <v>237</v>
       </c>
-      <c r="E237" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F237" s="2" t="s">
+      <c r="E237" t="s">
+        <v>567</v>
+      </c>
+      <c r="F237" t="s">
         <v>570</v>
       </c>
       <c r="G237">
@@ -16340,22 +16348,22 @@
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A238" s="2" t="s">
+      <c r="A238" t="s">
         <v>236</v>
       </c>
       <c r="B238">
         <v>30491220477</v>
       </c>
-      <c r="C238" s="2" t="s">
+      <c r="C238" t="s">
         <v>566</v>
       </c>
       <c r="D238">
         <v>238</v>
       </c>
-      <c r="E238" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F238" s="2" t="s">
+      <c r="E238" t="s">
+        <v>567</v>
+      </c>
+      <c r="F238" t="s">
         <v>569</v>
       </c>
       <c r="G238">
@@ -16366,22 +16374,22 @@
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A239" s="2" t="s">
+      <c r="A239" t="s">
         <v>237</v>
       </c>
       <c r="B239">
         <v>30491221618</v>
       </c>
-      <c r="C239" s="2" t="s">
+      <c r="C239" t="s">
         <v>566</v>
       </c>
       <c r="D239">
         <v>239</v>
       </c>
-      <c r="E239" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F239" s="2" t="s">
+      <c r="E239" t="s">
+        <v>567</v>
+      </c>
+      <c r="F239" t="s">
         <v>569</v>
       </c>
       <c r="G239">
@@ -16392,22 +16400,22 @@
       </c>
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A240" s="2" t="s">
+      <c r="A240" t="s">
         <v>238</v>
       </c>
       <c r="B240">
         <v>30141021419</v>
       </c>
-      <c r="C240" s="2" t="s">
+      <c r="C240" t="s">
         <v>566</v>
       </c>
       <c r="D240">
         <v>240</v>
       </c>
-      <c r="E240" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F240" s="2" t="s">
+      <c r="E240" t="s">
+        <v>567</v>
+      </c>
+      <c r="F240" t="s">
         <v>570</v>
       </c>
       <c r="G240">
@@ -16418,22 +16426,22 @@
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A241" s="2" t="s">
+      <c r="A241" t="s">
         <v>239</v>
       </c>
       <c r="B241">
         <v>30141021401</v>
       </c>
-      <c r="C241" s="2" t="s">
+      <c r="C241" t="s">
         <v>566</v>
       </c>
       <c r="D241">
         <v>241</v>
       </c>
-      <c r="E241" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F241" s="2" t="s">
+      <c r="E241" t="s">
+        <v>567</v>
+      </c>
+      <c r="F241" t="s">
         <v>570</v>
       </c>
       <c r="G241">
@@ -16444,22 +16452,22 @@
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A242" s="2" t="s">
+      <c r="A242" t="s">
         <v>240</v>
       </c>
       <c r="B242">
         <v>30141121381</v>
       </c>
-      <c r="C242" s="2" t="s">
+      <c r="C242" t="s">
         <v>566</v>
       </c>
       <c r="D242">
         <v>242</v>
       </c>
-      <c r="E242" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F242" s="2" t="s">
+      <c r="E242" t="s">
+        <v>567</v>
+      </c>
+      <c r="F242" t="s">
         <v>570</v>
       </c>
       <c r="G242">
@@ -16470,22 +16478,22 @@
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A243" s="2" t="s">
+      <c r="A243" t="s">
         <v>241</v>
       </c>
       <c r="B243">
         <v>30491221582</v>
       </c>
-      <c r="C243" s="2" t="s">
+      <c r="C243" t="s">
         <v>566</v>
       </c>
       <c r="D243">
         <v>243</v>
       </c>
-      <c r="E243" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F243" s="2" t="s">
+      <c r="E243" t="s">
+        <v>567</v>
+      </c>
+      <c r="F243" t="s">
         <v>569</v>
       </c>
       <c r="G243">
@@ -16496,22 +16504,22 @@
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A244" s="2" t="s">
+      <c r="A244" t="s">
         <v>242</v>
       </c>
       <c r="B244">
         <v>30491220455</v>
       </c>
-      <c r="C244" s="2" t="s">
+      <c r="C244" t="s">
         <v>566</v>
       </c>
       <c r="D244">
         <v>244</v>
       </c>
-      <c r="E244" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F244" s="2" t="s">
+      <c r="E244" t="s">
+        <v>567</v>
+      </c>
+      <c r="F244" t="s">
         <v>569</v>
       </c>
       <c r="G244">
@@ -16522,22 +16530,22 @@
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A245" s="2" t="s">
+      <c r="A245" t="s">
         <v>243</v>
       </c>
       <c r="B245">
         <v>30141021420</v>
       </c>
-      <c r="C245" s="2" t="s">
+      <c r="C245" t="s">
         <v>566</v>
       </c>
       <c r="D245">
         <v>245</v>
       </c>
-      <c r="E245" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F245" s="2" t="s">
+      <c r="E245" t="s">
+        <v>567</v>
+      </c>
+      <c r="F245" t="s">
         <v>570</v>
       </c>
       <c r="G245">
@@ -16548,22 +16556,22 @@
       </c>
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A246" s="2" t="s">
+      <c r="A246" t="s">
         <v>244</v>
       </c>
       <c r="B246">
         <v>30491321511</v>
       </c>
-      <c r="C246" s="2" t="s">
+      <c r="C246" t="s">
         <v>566</v>
       </c>
       <c r="D246">
         <v>246</v>
       </c>
-      <c r="E246" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F246" s="2" t="s">
+      <c r="E246" t="s">
+        <v>567</v>
+      </c>
+      <c r="F246" t="s">
         <v>569</v>
       </c>
       <c r="G246">
@@ -16574,22 +16582,22 @@
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A247" s="2" t="s">
+      <c r="A247" t="s">
         <v>245</v>
       </c>
       <c r="B247">
         <v>30491221619</v>
       </c>
-      <c r="C247" s="2" t="s">
+      <c r="C247" t="s">
         <v>566</v>
       </c>
       <c r="D247">
         <v>247</v>
       </c>
-      <c r="E247" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F247" s="2" t="s">
+      <c r="E247" t="s">
+        <v>567</v>
+      </c>
+      <c r="F247" t="s">
         <v>569</v>
       </c>
       <c r="G247">
@@ -16600,22 +16608,22 @@
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A248" s="2" t="s">
+      <c r="A248" t="s">
         <v>246</v>
       </c>
       <c r="B248">
         <v>30491221583</v>
       </c>
-      <c r="C248" s="2" t="s">
+      <c r="C248" t="s">
         <v>566</v>
       </c>
       <c r="D248">
         <v>248</v>
       </c>
-      <c r="E248" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F248" s="2" t="s">
+      <c r="E248" t="s">
+        <v>567</v>
+      </c>
+      <c r="F248" t="s">
         <v>569</v>
       </c>
       <c r="G248">
@@ -16626,22 +16634,22 @@
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A249" s="2" t="s">
+      <c r="A249" t="s">
         <v>247</v>
       </c>
       <c r="B249">
         <v>30141021402</v>
       </c>
-      <c r="C249" s="2" t="s">
+      <c r="C249" t="s">
         <v>566</v>
       </c>
       <c r="D249">
         <v>249</v>
       </c>
-      <c r="E249" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F249" s="2" t="s">
+      <c r="E249" t="s">
+        <v>567</v>
+      </c>
+      <c r="F249" t="s">
         <v>570</v>
       </c>
       <c r="G249">
@@ -16652,22 +16660,22 @@
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A250" s="2" t="s">
+      <c r="A250" t="s">
         <v>248</v>
       </c>
       <c r="B250">
         <v>3034621098</v>
       </c>
-      <c r="C250" s="2" t="s">
+      <c r="C250" t="s">
         <v>566</v>
       </c>
       <c r="D250">
         <v>250</v>
       </c>
-      <c r="E250" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F250" s="2" t="s">
+      <c r="E250" t="s">
+        <v>567</v>
+      </c>
+      <c r="F250" t="s">
         <v>568</v>
       </c>
       <c r="G250">
@@ -16678,22 +16686,22 @@
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A251" s="2" t="s">
+      <c r="A251" t="s">
         <v>249</v>
       </c>
       <c r="B251">
         <v>3034521116</v>
       </c>
-      <c r="C251" s="2" t="s">
+      <c r="C251" t="s">
         <v>566</v>
       </c>
       <c r="D251">
         <v>251</v>
       </c>
-      <c r="E251" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F251" s="2" t="s">
+      <c r="E251" t="s">
+        <v>567</v>
+      </c>
+      <c r="F251" t="s">
         <v>568</v>
       </c>
       <c r="G251">
@@ -16704,22 +16712,22 @@
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A252" s="2" t="s">
+      <c r="A252" t="s">
         <v>250</v>
       </c>
       <c r="B252">
         <v>30491220478</v>
       </c>
-      <c r="C252" s="2" t="s">
+      <c r="C252" t="s">
         <v>566</v>
       </c>
       <c r="D252">
         <v>252</v>
       </c>
-      <c r="E252" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F252" s="2" t="s">
+      <c r="E252" t="s">
+        <v>567</v>
+      </c>
+      <c r="F252" t="s">
         <v>569</v>
       </c>
       <c r="G252">
@@ -16730,22 +16738,22 @@
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A253" s="2" t="s">
+      <c r="A253" t="s">
         <v>251</v>
       </c>
       <c r="B253">
         <v>30491221584</v>
       </c>
-      <c r="C253" s="2" t="s">
+      <c r="C253" t="s">
         <v>566</v>
       </c>
       <c r="D253">
         <v>253</v>
       </c>
-      <c r="E253" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F253" s="2" t="s">
+      <c r="E253" t="s">
+        <v>567</v>
+      </c>
+      <c r="F253" t="s">
         <v>569</v>
       </c>
       <c r="G253">
@@ -16756,22 +16764,22 @@
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A254" s="2" t="s">
+      <c r="A254" t="s">
         <v>252</v>
       </c>
       <c r="B254">
         <v>30491221685</v>
       </c>
-      <c r="C254" s="2" t="s">
+      <c r="C254" t="s">
         <v>566</v>
       </c>
       <c r="D254">
         <v>254</v>
       </c>
-      <c r="E254" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F254" s="2" t="s">
+      <c r="E254" t="s">
+        <v>567</v>
+      </c>
+      <c r="F254" t="s">
         <v>569</v>
       </c>
       <c r="G254">
@@ -16782,22 +16790,22 @@
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A255" s="2" t="s">
+      <c r="A255" t="s">
         <v>253</v>
       </c>
       <c r="B255">
         <v>3034520076</v>
       </c>
-      <c r="C255" s="2" t="s">
+      <c r="C255" t="s">
         <v>566</v>
       </c>
       <c r="D255">
         <v>255</v>
       </c>
-      <c r="E255" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F255" s="2" t="s">
+      <c r="E255" t="s">
+        <v>567</v>
+      </c>
+      <c r="F255" t="s">
         <v>568</v>
       </c>
       <c r="G255">
@@ -16808,22 +16816,22 @@
       </c>
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A256" s="2" t="s">
+      <c r="A256" t="s">
         <v>254</v>
       </c>
       <c r="B256">
         <v>30141020358</v>
       </c>
-      <c r="C256" s="2" t="s">
+      <c r="C256" t="s">
         <v>566</v>
       </c>
       <c r="D256">
         <v>256</v>
       </c>
-      <c r="E256" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F256" s="2" t="s">
+      <c r="E256" t="s">
+        <v>567</v>
+      </c>
+      <c r="F256" t="s">
         <v>570</v>
       </c>
       <c r="G256">
@@ -16834,22 +16842,22 @@
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A257" s="2" t="s">
+      <c r="A257" t="s">
         <v>255</v>
       </c>
       <c r="B257">
         <v>30491321512</v>
       </c>
-      <c r="C257" s="2" t="s">
+      <c r="C257" t="s">
         <v>566</v>
       </c>
       <c r="D257">
         <v>257</v>
       </c>
-      <c r="E257" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F257" s="2" t="s">
+      <c r="E257" t="s">
+        <v>567</v>
+      </c>
+      <c r="F257" t="s">
         <v>569</v>
       </c>
       <c r="G257">
@@ -16860,22 +16868,22 @@
       </c>
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A258" s="2" t="s">
+      <c r="A258" t="s">
         <v>256</v>
       </c>
       <c r="B258">
         <v>30491321513</v>
       </c>
-      <c r="C258" s="2" t="s">
+      <c r="C258" t="s">
         <v>566</v>
       </c>
       <c r="D258">
         <v>258</v>
       </c>
-      <c r="E258" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F258" s="2" t="s">
+      <c r="E258" t="s">
+        <v>567</v>
+      </c>
+      <c r="F258" t="s">
         <v>569</v>
       </c>
       <c r="G258">
@@ -16886,22 +16894,22 @@
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A259" s="2" t="s">
+      <c r="A259" t="s">
         <v>257</v>
       </c>
       <c r="B259">
         <v>30491221620</v>
       </c>
-      <c r="C259" s="2" t="s">
+      <c r="C259" t="s">
         <v>566</v>
       </c>
       <c r="D259">
         <v>259</v>
       </c>
-      <c r="E259" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F259" s="2" t="s">
+      <c r="E259" t="s">
+        <v>567</v>
+      </c>
+      <c r="F259" t="s">
         <v>569</v>
       </c>
       <c r="G259">
@@ -16912,22 +16920,22 @@
       </c>
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A260" s="2" t="s">
+      <c r="A260" t="s">
         <v>258</v>
       </c>
       <c r="B260">
         <v>30491221586</v>
       </c>
-      <c r="C260" s="2" t="s">
+      <c r="C260" t="s">
         <v>566</v>
       </c>
       <c r="D260">
         <v>260</v>
       </c>
-      <c r="E260" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F260" s="2" t="s">
+      <c r="E260" t="s">
+        <v>567</v>
+      </c>
+      <c r="F260" t="s">
         <v>569</v>
       </c>
       <c r="G260">
@@ -16938,22 +16946,22 @@
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A261" s="2" t="s">
+      <c r="A261" t="s">
         <v>259</v>
       </c>
       <c r="B261">
         <v>30141021421</v>
       </c>
-      <c r="C261" s="2" t="s">
+      <c r="C261" t="s">
         <v>566</v>
       </c>
       <c r="D261">
         <v>261</v>
       </c>
-      <c r="E261" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F261" s="2" t="s">
+      <c r="E261" t="s">
+        <v>567</v>
+      </c>
+      <c r="F261" t="s">
         <v>570</v>
       </c>
       <c r="G261">
@@ -16964,22 +16972,22 @@
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A262" s="2" t="s">
+      <c r="A262" t="s">
         <v>260</v>
       </c>
       <c r="B262">
         <v>3034521117</v>
       </c>
-      <c r="C262" s="2" t="s">
+      <c r="C262" t="s">
         <v>566</v>
       </c>
       <c r="D262">
         <v>262</v>
       </c>
-      <c r="E262" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F262" s="2" t="s">
+      <c r="E262" t="s">
+        <v>567</v>
+      </c>
+      <c r="F262" t="s">
         <v>568</v>
       </c>
       <c r="G262">
@@ -16990,22 +16998,22 @@
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A263" s="2" t="s">
+      <c r="A263" t="s">
         <v>261</v>
       </c>
       <c r="B263">
         <v>30141121382</v>
       </c>
-      <c r="C263" s="2" t="s">
+      <c r="C263" t="s">
         <v>566</v>
       </c>
       <c r="D263">
         <v>263</v>
       </c>
-      <c r="E263" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F263" s="2" t="s">
+      <c r="E263" t="s">
+        <v>567</v>
+      </c>
+      <c r="F263" t="s">
         <v>570</v>
       </c>
       <c r="G263">
@@ -17016,22 +17024,22 @@
       </c>
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A264" s="2" t="s">
+      <c r="A264" t="s">
         <v>262</v>
       </c>
       <c r="B264">
         <v>30491220456</v>
       </c>
-      <c r="C264" s="2" t="s">
+      <c r="C264" t="s">
         <v>566</v>
       </c>
       <c r="D264">
         <v>264</v>
       </c>
-      <c r="E264" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F264" s="2" t="s">
+      <c r="E264" t="s">
+        <v>567</v>
+      </c>
+      <c r="F264" t="s">
         <v>569</v>
       </c>
       <c r="G264">
@@ -17042,22 +17050,22 @@
       </c>
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A265" s="2" t="s">
+      <c r="A265" t="s">
         <v>263</v>
       </c>
       <c r="B265">
         <v>30491321514</v>
       </c>
-      <c r="C265" s="2" t="s">
+      <c r="C265" t="s">
         <v>566</v>
       </c>
       <c r="D265">
         <v>265</v>
       </c>
-      <c r="E265" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F265" s="2" t="s">
+      <c r="E265" t="s">
+        <v>567</v>
+      </c>
+      <c r="F265" t="s">
         <v>569</v>
       </c>
       <c r="G265">
@@ -17068,22 +17076,22 @@
       </c>
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A266" s="2" t="s">
+      <c r="A266" t="s">
         <v>264</v>
       </c>
       <c r="B266">
         <v>30141021403</v>
       </c>
-      <c r="C266" s="2" t="s">
+      <c r="C266" t="s">
         <v>566</v>
       </c>
       <c r="D266">
         <v>266</v>
       </c>
-      <c r="E266" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F266" s="2" t="s">
+      <c r="E266" t="s">
+        <v>567</v>
+      </c>
+      <c r="F266" t="s">
         <v>570</v>
       </c>
       <c r="G266">
@@ -17094,22 +17102,22 @@
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A267" s="2" t="s">
+      <c r="A267" t="s">
         <v>265</v>
       </c>
       <c r="B267">
         <v>3034621099</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="C267" t="s">
         <v>566</v>
       </c>
       <c r="D267">
         <v>267</v>
       </c>
-      <c r="E267" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F267" s="2" t="s">
+      <c r="E267" t="s">
+        <v>567</v>
+      </c>
+      <c r="F267" t="s">
         <v>568</v>
       </c>
       <c r="G267">
@@ -17120,22 +17128,22 @@
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A268" s="2" t="s">
+      <c r="A268" t="s">
         <v>266</v>
       </c>
       <c r="B268">
         <v>30141020359</v>
       </c>
-      <c r="C268" s="2" t="s">
+      <c r="C268" t="s">
         <v>566</v>
       </c>
       <c r="D268">
         <v>268</v>
       </c>
-      <c r="E268" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F268" s="2" t="s">
+      <c r="E268" t="s">
+        <v>567</v>
+      </c>
+      <c r="F268" t="s">
         <v>570</v>
       </c>
       <c r="G268">
@@ -17146,22 +17154,22 @@
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A269" s="2" t="s">
+      <c r="A269" t="s">
         <v>267</v>
       </c>
       <c r="B269">
         <v>30491321515</v>
       </c>
-      <c r="C269" s="2" t="s">
+      <c r="C269" t="s">
         <v>566</v>
       </c>
       <c r="D269">
         <v>269</v>
       </c>
-      <c r="E269" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F269" s="2" t="s">
+      <c r="E269" t="s">
+        <v>567</v>
+      </c>
+      <c r="F269" t="s">
         <v>569</v>
       </c>
       <c r="G269">
@@ -17172,22 +17180,22 @@
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A270" s="2" t="s">
+      <c r="A270" t="s">
         <v>268</v>
       </c>
       <c r="B270">
         <v>30491221587</v>
       </c>
-      <c r="C270" s="2" t="s">
+      <c r="C270" t="s">
         <v>566</v>
       </c>
       <c r="D270">
         <v>270</v>
       </c>
-      <c r="E270" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F270" s="2" t="s">
+      <c r="E270" t="s">
+        <v>567</v>
+      </c>
+      <c r="F270" t="s">
         <v>569</v>
       </c>
       <c r="G270">
@@ -17198,22 +17206,22 @@
       </c>
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A271" s="2" t="s">
+      <c r="A271" t="s">
         <v>269</v>
       </c>
       <c r="B271">
         <v>30491220479</v>
       </c>
-      <c r="C271" s="2" t="s">
+      <c r="C271" t="s">
         <v>566</v>
       </c>
       <c r="D271">
         <v>271</v>
       </c>
-      <c r="E271" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F271" s="2" t="s">
+      <c r="E271" t="s">
+        <v>567</v>
+      </c>
+      <c r="F271" t="s">
         <v>569</v>
       </c>
       <c r="G271">
@@ -17224,22 +17232,22 @@
       </c>
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A272" s="2" t="s">
+      <c r="A272" t="s">
         <v>270</v>
       </c>
       <c r="B272">
         <v>3034521118</v>
       </c>
-      <c r="C272" s="2" t="s">
+      <c r="C272" t="s">
         <v>566</v>
       </c>
       <c r="D272">
         <v>272</v>
       </c>
-      <c r="E272" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F272" s="2" t="s">
+      <c r="E272" t="s">
+        <v>567</v>
+      </c>
+      <c r="F272" t="s">
         <v>568</v>
       </c>
       <c r="G272">
@@ -17250,22 +17258,22 @@
       </c>
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A273" s="2" t="s">
+      <c r="A273" t="s">
         <v>271</v>
       </c>
       <c r="B273">
         <v>30141020360</v>
       </c>
-      <c r="C273" s="2" t="s">
+      <c r="C273" t="s">
         <v>566</v>
       </c>
       <c r="D273">
         <v>273</v>
       </c>
-      <c r="E273" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F273" s="2" t="s">
+      <c r="E273" t="s">
+        <v>567</v>
+      </c>
+      <c r="F273" t="s">
         <v>570</v>
       </c>
       <c r="G273">
@@ -17276,22 +17284,22 @@
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A274" s="2" t="s">
+      <c r="A274" t="s">
         <v>272</v>
       </c>
       <c r="B274">
         <v>30491221588</v>
       </c>
-      <c r="C274" s="2" t="s">
+      <c r="C274" t="s">
         <v>566</v>
       </c>
       <c r="D274">
         <v>274</v>
       </c>
-      <c r="E274" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F274" s="2" t="s">
+      <c r="E274" t="s">
+        <v>567</v>
+      </c>
+      <c r="F274" t="s">
         <v>569</v>
       </c>
       <c r="G274">
@@ -17302,22 +17310,22 @@
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A275" s="2" t="s">
+      <c r="A275" t="s">
         <v>273</v>
       </c>
       <c r="B275">
         <v>30491220457</v>
       </c>
-      <c r="C275" s="2" t="s">
+      <c r="C275" t="s">
         <v>566</v>
       </c>
       <c r="D275">
         <v>275</v>
       </c>
-      <c r="E275" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F275" s="2" t="s">
+      <c r="E275" t="s">
+        <v>567</v>
+      </c>
+      <c r="F275" t="s">
         <v>569</v>
       </c>
       <c r="G275">
@@ -17328,22 +17336,22 @@
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A276" s="2" t="s">
+      <c r="A276" t="s">
         <v>274</v>
       </c>
       <c r="B276">
         <v>30491221621</v>
       </c>
-      <c r="C276" s="2" t="s">
+      <c r="C276" t="s">
         <v>565</v>
       </c>
       <c r="D276">
         <v>276</v>
       </c>
-      <c r="E276" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F276" s="2" t="s">
+      <c r="E276" t="s">
+        <v>567</v>
+      </c>
+      <c r="F276" t="s">
         <v>569</v>
       </c>
       <c r="G276">
@@ -17354,22 +17362,22 @@
       </c>
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A277" s="2" t="s">
+      <c r="A277" t="s">
         <v>275</v>
       </c>
       <c r="B277">
         <v>30491221622</v>
       </c>
-      <c r="C277" s="2" t="s">
+      <c r="C277" t="s">
         <v>566</v>
       </c>
       <c r="D277">
         <v>277</v>
       </c>
-      <c r="E277" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F277" s="2" t="s">
+      <c r="E277" t="s">
+        <v>567</v>
+      </c>
+      <c r="F277" t="s">
         <v>569</v>
       </c>
       <c r="G277">
@@ -17380,22 +17388,22 @@
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A278" s="2" t="s">
+      <c r="A278" t="s">
         <v>276</v>
       </c>
       <c r="B278">
         <v>30491220458</v>
       </c>
-      <c r="C278" s="2" t="s">
+      <c r="C278" t="s">
         <v>566</v>
       </c>
       <c r="D278">
         <v>278</v>
       </c>
-      <c r="E278" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F278" s="2" t="s">
+      <c r="E278" t="s">
+        <v>567</v>
+      </c>
+      <c r="F278" t="s">
         <v>569</v>
       </c>
       <c r="G278">
@@ -17406,22 +17414,22 @@
       </c>
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A279" s="2" t="s">
+      <c r="A279" t="s">
         <v>277</v>
       </c>
       <c r="B279">
         <v>30141021422</v>
       </c>
-      <c r="C279" s="2" t="s">
+      <c r="C279" t="s">
         <v>566</v>
       </c>
       <c r="D279">
         <v>279</v>
       </c>
-      <c r="E279" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F279" s="2" t="s">
+      <c r="E279" t="s">
+        <v>567</v>
+      </c>
+      <c r="F279" t="s">
         <v>570</v>
       </c>
       <c r="G279">
@@ -17432,22 +17440,22 @@
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A280" s="2" t="s">
+      <c r="A280" t="s">
         <v>278</v>
       </c>
       <c r="B280">
         <v>30141121383</v>
       </c>
-      <c r="C280" s="2" t="s">
+      <c r="C280" t="s">
         <v>566</v>
       </c>
       <c r="D280">
         <v>280</v>
       </c>
-      <c r="E280" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F280" s="2" t="s">
+      <c r="E280" t="s">
+        <v>567</v>
+      </c>
+      <c r="F280" t="s">
         <v>570</v>
       </c>
       <c r="G280">
@@ -17458,22 +17466,22 @@
       </c>
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A281" s="2" t="s">
+      <c r="A281" t="s">
         <v>279</v>
       </c>
       <c r="B281">
         <v>3034520077</v>
       </c>
-      <c r="C281" s="2" t="s">
+      <c r="C281" t="s">
         <v>566</v>
       </c>
       <c r="D281">
         <v>281</v>
       </c>
-      <c r="E281" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F281" s="2" t="s">
+      <c r="E281" t="s">
+        <v>567</v>
+      </c>
+      <c r="F281" t="s">
         <v>568</v>
       </c>
       <c r="G281">
@@ -17484,22 +17492,22 @@
       </c>
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A282" s="2" t="s">
+      <c r="A282" t="s">
         <v>280</v>
       </c>
       <c r="B282">
         <v>3034621100</v>
       </c>
-      <c r="C282" s="2" t="s">
+      <c r="C282" t="s">
         <v>566</v>
       </c>
       <c r="D282">
         <v>282</v>
       </c>
-      <c r="E282" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F282" s="2" t="s">
+      <c r="E282" t="s">
+        <v>567</v>
+      </c>
+      <c r="F282" t="s">
         <v>568</v>
       </c>
       <c r="G282">
@@ -17510,22 +17518,22 @@
       </c>
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A283" s="2" t="s">
+      <c r="A283" t="s">
         <v>281</v>
       </c>
       <c r="B283">
         <v>30141020361</v>
       </c>
-      <c r="C283" s="2" t="s">
+      <c r="C283" t="s">
         <v>566</v>
       </c>
       <c r="D283">
         <v>283</v>
       </c>
-      <c r="E283" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F283" s="2" t="s">
+      <c r="E283" t="s">
+        <v>567</v>
+      </c>
+      <c r="F283" t="s">
         <v>570</v>
       </c>
       <c r="G283">
@@ -17536,22 +17544,22 @@
       </c>
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A284" s="2" t="s">
+      <c r="A284" t="s">
         <v>282</v>
       </c>
       <c r="B284">
         <v>30141020362</v>
       </c>
-      <c r="C284" s="2" t="s">
+      <c r="C284" t="s">
         <v>566</v>
       </c>
       <c r="D284">
         <v>284</v>
       </c>
-      <c r="E284" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F284" s="2" t="s">
+      <c r="E284" t="s">
+        <v>567</v>
+      </c>
+      <c r="F284" t="s">
         <v>570</v>
       </c>
       <c r="G284">
@@ -17562,22 +17570,22 @@
       </c>
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A285" s="2" t="s">
+      <c r="A285" t="s">
         <v>283</v>
       </c>
       <c r="B285">
         <v>30491321516</v>
       </c>
-      <c r="C285" s="2" t="s">
+      <c r="C285" t="s">
         <v>566</v>
       </c>
       <c r="D285">
         <v>285</v>
       </c>
-      <c r="E285" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="F285" s="2" t="s">
+      <c r="E285" t="s">
+        <v>567</v>
+      </c>
+      <c r="F285" t="s">
         <v>569</v>
       </c>
       <c r="G285">
